--- a/data/baseTesteIXC.xlsx
+++ b/data/baseTesteIXC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weslley Carvalho\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weslley Carvalho\import_data_ixc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40AE4021-553F-48A6-877C-3144D85DAEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417494EB-9185-4C61-AC9C-6DB024F0BD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8FC378E9-0372-46C3-819C-916EEC60C49E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6128" uniqueCount="2923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6611" uniqueCount="3356">
   <si>
     <t>id</t>
   </si>
@@ -8805,6 +8805,1305 @@
   </si>
   <si>
     <t>goes</t>
+  </si>
+  <si>
+    <t>(28)999537513</t>
+  </si>
+  <si>
+    <t>(82)9815-5632</t>
+  </si>
+  <si>
+    <t>(82)8784-0401</t>
+  </si>
+  <si>
+    <t>(82)996596910</t>
+  </si>
+  <si>
+    <t>(82)982093658</t>
+  </si>
+  <si>
+    <t>(82)982183668</t>
+  </si>
+  <si>
+    <t>(82)982098034</t>
+  </si>
+  <si>
+    <t>(82)981356603</t>
+  </si>
+  <si>
+    <t>(82)981924486</t>
+  </si>
+  <si>
+    <t>(82)9999188647</t>
+  </si>
+  <si>
+    <t>(82)981246088</t>
+  </si>
+  <si>
+    <t>(82)987857154</t>
+  </si>
+  <si>
+    <t>(82)996606797</t>
+  </si>
+  <si>
+    <t>(82)981014978</t>
+  </si>
+  <si>
+    <t>(82)981751168</t>
+  </si>
+  <si>
+    <t>(82)981040138</t>
+  </si>
+  <si>
+    <t>(82)993410370</t>
+  </si>
+  <si>
+    <t>(82)981644353</t>
+  </si>
+  <si>
+    <t>(82)996010794</t>
+  </si>
+  <si>
+    <t>(37)998312091</t>
+  </si>
+  <si>
+    <t>(82)982331128</t>
+  </si>
+  <si>
+    <t>(82)982059850</t>
+  </si>
+  <si>
+    <t>(82)9811-8633</t>
+  </si>
+  <si>
+    <t>(82)981575672</t>
+  </si>
+  <si>
+    <t>(82)981684486</t>
+  </si>
+  <si>
+    <t>(82)982064077</t>
+  </si>
+  <si>
+    <t>(82)987708677</t>
+  </si>
+  <si>
+    <t>(82)999213001</t>
+  </si>
+  <si>
+    <t>(82)998053565</t>
+  </si>
+  <si>
+    <t>(82)981122512</t>
+  </si>
+  <si>
+    <t>(82)981764621</t>
+  </si>
+  <si>
+    <t>(82)981439757</t>
+  </si>
+  <si>
+    <t>(82)981043236</t>
+  </si>
+  <si>
+    <t>(82)9822-4453</t>
+  </si>
+  <si>
+    <t>(82)981349043</t>
+  </si>
+  <si>
+    <t>(82)996334927</t>
+  </si>
+  <si>
+    <t>(82)993950697</t>
+  </si>
+  <si>
+    <t>(82)981690918</t>
+  </si>
+  <si>
+    <t>(82)981258227</t>
+  </si>
+  <si>
+    <t>(82)981875966</t>
+  </si>
+  <si>
+    <t>(82)981273602</t>
+  </si>
+  <si>
+    <t>(81)996763408</t>
+  </si>
+  <si>
+    <t>(82)982166803</t>
+  </si>
+  <si>
+    <t>(82)981429333</t>
+  </si>
+  <si>
+    <t>(82)981667920</t>
+  </si>
+  <si>
+    <t>(82)998298324</t>
+  </si>
+  <si>
+    <t>(82)991182105</t>
+  </si>
+  <si>
+    <t>(82)981067625</t>
+  </si>
+  <si>
+    <t>(82)982326906</t>
+  </si>
+  <si>
+    <t>(82)998111860</t>
+  </si>
+  <si>
+    <t>(82)981548224</t>
+  </si>
+  <si>
+    <t>(82)996835803</t>
+  </si>
+  <si>
+    <t>(82)999014392</t>
+  </si>
+  <si>
+    <t>(98)992163724</t>
+  </si>
+  <si>
+    <t>(82)982053201</t>
+  </si>
+  <si>
+    <t>(82)999349813</t>
+  </si>
+  <si>
+    <t>(82)981239795</t>
+  </si>
+  <si>
+    <t>(82)996375533</t>
+  </si>
+  <si>
+    <t>(82)981292607</t>
+  </si>
+  <si>
+    <t>(00)000000000</t>
+  </si>
+  <si>
+    <t>(45)991165988</t>
+  </si>
+  <si>
+    <t>(82)999800172</t>
+  </si>
+  <si>
+    <t>(82)981314860</t>
+  </si>
+  <si>
+    <t>(82)981602116</t>
+  </si>
+  <si>
+    <t>(82)982020050</t>
+  </si>
+  <si>
+    <t>(88)888888888</t>
+  </si>
+  <si>
+    <t>(82)996638287</t>
+  </si>
+  <si>
+    <t>(82)982161924</t>
+  </si>
+  <si>
+    <t>(82)981032469</t>
+  </si>
+  <si>
+    <t>(27)997048979</t>
+  </si>
+  <si>
+    <t>(82)996155415</t>
+  </si>
+  <si>
+    <t>(82)994131086</t>
+  </si>
+  <si>
+    <t>(82)981257278</t>
+  </si>
+  <si>
+    <t>(82)981354031</t>
+  </si>
+  <si>
+    <t>(82)987319273</t>
+  </si>
+  <si>
+    <t>(82)981413815</t>
+  </si>
+  <si>
+    <t>(82)982074562</t>
+  </si>
+  <si>
+    <t>(82)981730596</t>
+  </si>
+  <si>
+    <t>(82)998098816</t>
+  </si>
+  <si>
+    <t>82 981633453</t>
+  </si>
+  <si>
+    <t>(82)981073799</t>
+  </si>
+  <si>
+    <t>(82)982331376</t>
+  </si>
+  <si>
+    <t>(82)981286869</t>
+  </si>
+  <si>
+    <t>(67)996194439</t>
+  </si>
+  <si>
+    <t>(82)982244533</t>
+  </si>
+  <si>
+    <t>(82)996543372</t>
+  </si>
+  <si>
+    <t>(82)9654-3372</t>
+  </si>
+  <si>
+    <t>(82)996601983</t>
+  </si>
+  <si>
+    <t>(82)981387555</t>
+  </si>
+  <si>
+    <t>(82)981560366</t>
+  </si>
+  <si>
+    <t>(82)982022671</t>
+  </si>
+  <si>
+    <t>(82)982292273</t>
+  </si>
+  <si>
+    <t>(82)999949226</t>
+  </si>
+  <si>
+    <t>(82)999356125</t>
+  </si>
+  <si>
+    <t>(82)988817309</t>
+  </si>
+  <si>
+    <t>(82)991938860</t>
+  </si>
+  <si>
+    <t>(82)981844897</t>
+  </si>
+  <si>
+    <t>(82)981491855</t>
+  </si>
+  <si>
+    <t>(82)996574731</t>
+  </si>
+  <si>
+    <t>(82)982050215</t>
+  </si>
+  <si>
+    <t>(82)988073028</t>
+  </si>
+  <si>
+    <t>(82)982253114</t>
+  </si>
+  <si>
+    <t>(82)991272383</t>
+  </si>
+  <si>
+    <t>(82)981687471</t>
+  </si>
+  <si>
+    <t>(82)982065813</t>
+  </si>
+  <si>
+    <t>(82)998224195</t>
+  </si>
+  <si>
+    <t>(82)981718640</t>
+  </si>
+  <si>
+    <t>(82)999616589</t>
+  </si>
+  <si>
+    <t>(82)981683674</t>
+  </si>
+  <si>
+    <t>(82)996740294</t>
+  </si>
+  <si>
+    <t>(82)981156677</t>
+  </si>
+  <si>
+    <t>(82)981243276</t>
+  </si>
+  <si>
+    <t>(82)981736724</t>
+  </si>
+  <si>
+    <t>(82)999279712</t>
+  </si>
+  <si>
+    <t>(82)8105-4737</t>
+  </si>
+  <si>
+    <t>(82)999415101</t>
+  </si>
+  <si>
+    <t>(82)988497887</t>
+  </si>
+  <si>
+    <t>(82)982266216</t>
+  </si>
+  <si>
+    <t>(82)982062200</t>
+  </si>
+  <si>
+    <t>(82)996574077</t>
+  </si>
+  <si>
+    <t>(82)982152328</t>
+  </si>
+  <si>
+    <t>(82)996358709</t>
+  </si>
+  <si>
+    <t>(82)981845716</t>
+  </si>
+  <si>
+    <t>82 981674711</t>
+  </si>
+  <si>
+    <t>(82)993851260</t>
+  </si>
+  <si>
+    <t>(82)982190852</t>
+  </si>
+  <si>
+    <t>(82)982290990</t>
+  </si>
+  <si>
+    <t>(82)996568471</t>
+  </si>
+  <si>
+    <t>(82)981603896</t>
+  </si>
+  <si>
+    <t>(82)994117013</t>
+  </si>
+  <si>
+    <t>(82)981214301</t>
+  </si>
+  <si>
+    <t>(82)981483587</t>
+  </si>
+  <si>
+    <t>(82)991116630</t>
+  </si>
+  <si>
+    <t>(82)981716367</t>
+  </si>
+  <si>
+    <t>(82)981246982</t>
+  </si>
+  <si>
+    <t>(82)981246882</t>
+  </si>
+  <si>
+    <t>(82)998061858</t>
+  </si>
+  <si>
+    <t>(82)9983-1196</t>
+  </si>
+  <si>
+    <t>(82)988489961</t>
+  </si>
+  <si>
+    <t>(82)981892983</t>
+  </si>
+  <si>
+    <t>(82)996461909</t>
+  </si>
+  <si>
+    <t>(82)981598667</t>
+  </si>
+  <si>
+    <t>(82)998275060</t>
+  </si>
+  <si>
+    <t>(82)998107379</t>
+  </si>
+  <si>
+    <t>(82)982129314</t>
+  </si>
+  <si>
+    <t>829823-22609</t>
+  </si>
+  <si>
+    <t>(82)982376566</t>
+  </si>
+  <si>
+    <t>(82)981374177</t>
+  </si>
+  <si>
+    <t>(82)982331059</t>
+  </si>
+  <si>
+    <t>(27)996267165</t>
+  </si>
+  <si>
+    <t>(82)981590176</t>
+  </si>
+  <si>
+    <t>(82)982197338</t>
+  </si>
+  <si>
+    <t>(82)988564561</t>
+  </si>
+  <si>
+    <t>(82)981072428</t>
+  </si>
+  <si>
+    <t>(82)981518630</t>
+  </si>
+  <si>
+    <t>(82)981709120</t>
+  </si>
+  <si>
+    <t>(82)996386134</t>
+  </si>
+  <si>
+    <t>(82)981737604</t>
+  </si>
+  <si>
+    <t>(82)993182621</t>
+  </si>
+  <si>
+    <t>(82)981651053</t>
+  </si>
+  <si>
+    <t>(82)981464035</t>
+  </si>
+  <si>
+    <t>(88)888888889</t>
+  </si>
+  <si>
+    <t>(82)981670874</t>
+  </si>
+  <si>
+    <t>(82)981681381</t>
+  </si>
+  <si>
+    <t>(82)981403364</t>
+  </si>
+  <si>
+    <t>(82)999028744</t>
+  </si>
+  <si>
+    <t>(82)982017600</t>
+  </si>
+  <si>
+    <t>(82)999993059</t>
+  </si>
+  <si>
+    <t>(82)996983186</t>
+  </si>
+  <si>
+    <t>(82)981155251</t>
+  </si>
+  <si>
+    <t>(82)981309731</t>
+  </si>
+  <si>
+    <t>(82)981483062</t>
+  </si>
+  <si>
+    <t>(82)981282879</t>
+  </si>
+  <si>
+    <t>(82)981564939</t>
+  </si>
+  <si>
+    <t>(82)981439335</t>
+  </si>
+  <si>
+    <t>(82)991439335</t>
+  </si>
+  <si>
+    <t>(82)981167785</t>
+  </si>
+  <si>
+    <t>(82)998072703</t>
+  </si>
+  <si>
+    <t>(82)988816456</t>
+  </si>
+  <si>
+    <t>(82)981591197</t>
+  </si>
+  <si>
+    <t>(82)9114-9930</t>
+  </si>
+  <si>
+    <t>(64)999865169</t>
+  </si>
+  <si>
+    <t>(82)981727981</t>
+  </si>
+  <si>
+    <t>(82)982299983</t>
+  </si>
+  <si>
+    <t>(82)981837801</t>
+  </si>
+  <si>
+    <t>(82)999383613</t>
+  </si>
+  <si>
+    <t>(82)981611524</t>
+  </si>
+  <si>
+    <t>82 98188-6154</t>
+  </si>
+  <si>
+    <t>(82)999342845</t>
+  </si>
+  <si>
+    <t>(82)981818799</t>
+  </si>
+  <si>
+    <t>(82)981243855</t>
+  </si>
+  <si>
+    <t>(82)981235083</t>
+  </si>
+  <si>
+    <t>(82)999837643</t>
+  </si>
+  <si>
+    <t>(82)996346437</t>
+  </si>
+  <si>
+    <t>(82)981367420</t>
+  </si>
+  <si>
+    <t>(82)999930752</t>
+  </si>
+  <si>
+    <t>(82)981020055</t>
+  </si>
+  <si>
+    <t>(82)981663669</t>
+  </si>
+  <si>
+    <t>(82)982364445</t>
+  </si>
+  <si>
+    <t>(82)981670101</t>
+  </si>
+  <si>
+    <t>(82)981069342</t>
+  </si>
+  <si>
+    <t>(82)982028714</t>
+  </si>
+  <si>
+    <t>(82)993845627</t>
+  </si>
+  <si>
+    <t>(82)982101990</t>
+  </si>
+  <si>
+    <t>(82)982131997</t>
+  </si>
+  <si>
+    <t>(82)993336964</t>
+  </si>
+  <si>
+    <t>(82)981741809</t>
+  </si>
+  <si>
+    <t>(82)981235358</t>
+  </si>
+  <si>
+    <t>(45)991420820</t>
+  </si>
+  <si>
+    <t>(34)992094370</t>
+  </si>
+  <si>
+    <t>(82)999163493</t>
+  </si>
+  <si>
+    <t>(82)996218603</t>
+  </si>
+  <si>
+    <t>(82)999021907</t>
+  </si>
+  <si>
+    <t>(45)991390308</t>
+  </si>
+  <si>
+    <t>(19)982520323</t>
+  </si>
+  <si>
+    <t>(82)987218357</t>
+  </si>
+  <si>
+    <t>(82)981766950</t>
+  </si>
+  <si>
+    <t>(82)982193320</t>
+  </si>
+  <si>
+    <t>(82)996222102</t>
+  </si>
+  <si>
+    <t>(82)981506935</t>
+  </si>
+  <si>
+    <t>(82)981204906</t>
+  </si>
+  <si>
+    <t>(82)981137720</t>
+  </si>
+  <si>
+    <t>(82)996279098</t>
+  </si>
+  <si>
+    <t>(82)981875655</t>
+  </si>
+  <si>
+    <t>(82)999127426</t>
+  </si>
+  <si>
+    <t>(82)981043669</t>
+  </si>
+  <si>
+    <t>(82)981860047</t>
+  </si>
+  <si>
+    <t>(82)987057879</t>
+  </si>
+  <si>
+    <t>(82)981429296</t>
+  </si>
+  <si>
+    <t>(82)982335409</t>
+  </si>
+  <si>
+    <t>(82)999719811</t>
+  </si>
+  <si>
+    <t>(82)981246014</t>
+  </si>
+  <si>
+    <t>(82)998264181</t>
+  </si>
+  <si>
+    <t>(82)981539248</t>
+  </si>
+  <si>
+    <t>(82)981145785</t>
+  </si>
+  <si>
+    <t>(82)981477666</t>
+  </si>
+  <si>
+    <t>(82)996896450</t>
+  </si>
+  <si>
+    <t>(82)993743797</t>
+  </si>
+  <si>
+    <t>(82)982328652</t>
+  </si>
+  <si>
+    <t>(82)981495495</t>
+  </si>
+  <si>
+    <t>(82)981379339</t>
+  </si>
+  <si>
+    <t>(82)981236354</t>
+  </si>
+  <si>
+    <t>(82)994020925</t>
+  </si>
+  <si>
+    <t>(82)996388317</t>
+  </si>
+  <si>
+    <t>(82)996472583</t>
+  </si>
+  <si>
+    <t>(82)981228938</t>
+  </si>
+  <si>
+    <t>(82)9816-7471</t>
+  </si>
+  <si>
+    <t>(82)981136254</t>
+  </si>
+  <si>
+    <t>(82)981045984</t>
+  </si>
+  <si>
+    <t>(82)981785759</t>
+  </si>
+  <si>
+    <t>(87)981010124</t>
+  </si>
+  <si>
+    <t>(82)988950399</t>
+  </si>
+  <si>
+    <t>(82)981480747</t>
+  </si>
+  <si>
+    <t>(82)982121184</t>
+  </si>
+  <si>
+    <t>(82)982342326</t>
+  </si>
+  <si>
+    <t>(82)981455520</t>
+  </si>
+  <si>
+    <t>(82)981118955</t>
+  </si>
+  <si>
+    <t>(82)981066925</t>
+  </si>
+  <si>
+    <t>(82)981142860</t>
+  </si>
+  <si>
+    <t>(82)994027818</t>
+  </si>
+  <si>
+    <t>(82)998281492</t>
+  </si>
+  <si>
+    <t>(82)981298340</t>
+  </si>
+  <si>
+    <t>(82)999613254</t>
+  </si>
+  <si>
+    <t>(99)99466035</t>
+  </si>
+  <si>
+    <t>(82)9999999</t>
+  </si>
+  <si>
+    <t>(82)981553310</t>
+  </si>
+  <si>
+    <t>(82)996865559</t>
+  </si>
+  <si>
+    <t>(82)981441280</t>
+  </si>
+  <si>
+    <t>(82)987264306</t>
+  </si>
+  <si>
+    <t>(82)987447241</t>
+  </si>
+  <si>
+    <t>(82)999579912</t>
+  </si>
+  <si>
+    <t>(82)981118037</t>
+  </si>
+  <si>
+    <t>(82)999593233</t>
+  </si>
+  <si>
+    <t>(82)981898431</t>
+  </si>
+  <si>
+    <t>(82)981908809</t>
+  </si>
+  <si>
+    <t>(82)981846543</t>
+  </si>
+  <si>
+    <t>(82)981652381</t>
+  </si>
+  <si>
+    <t>(82)999550611</t>
+  </si>
+  <si>
+    <t>(82)981754073</t>
+  </si>
+  <si>
+    <t>(82)981303331</t>
+  </si>
+  <si>
+    <t>(82)981598436</t>
+  </si>
+  <si>
+    <t>(82)99817276</t>
+  </si>
+  <si>
+    <t>(82)982371193</t>
+  </si>
+  <si>
+    <t>(82)981348072</t>
+  </si>
+  <si>
+    <t>(82)981393261</t>
+  </si>
+  <si>
+    <t>(82)981042418</t>
+  </si>
+  <si>
+    <t>(82)999150647</t>
+  </si>
+  <si>
+    <t>(82)981704462</t>
+  </si>
+  <si>
+    <t>(82)994296697</t>
+  </si>
+  <si>
+    <t>(82)981463462</t>
+  </si>
+  <si>
+    <t>(82)996746012</t>
+  </si>
+  <si>
+    <t>(82)981442740</t>
+  </si>
+  <si>
+    <t>(82)982221051</t>
+  </si>
+  <si>
+    <t>(82)998361549</t>
+  </si>
+  <si>
+    <t>(82)982244047</t>
+  </si>
+  <si>
+    <t>(82)981490969</t>
+  </si>
+  <si>
+    <t>(82)982235654</t>
+  </si>
+  <si>
+    <t>(82)900000000</t>
+  </si>
+  <si>
+    <t>(82)993990588</t>
+  </si>
+  <si>
+    <t>(82)981374405</t>
+  </si>
+  <si>
+    <t>(82)999411740</t>
+  </si>
+  <si>
+    <t>(82)999280071</t>
+  </si>
+  <si>
+    <t>(82)988727133</t>
+  </si>
+  <si>
+    <t>(82)982089491</t>
+  </si>
+  <si>
+    <t>(82)981486244</t>
+  </si>
+  <si>
+    <t>(82)999719784</t>
+  </si>
+  <si>
+    <t>(82)981719543</t>
+  </si>
+  <si>
+    <t>(82)981414270</t>
+  </si>
+  <si>
+    <t>(82)998403221</t>
+  </si>
+  <si>
+    <t>(82)999999999</t>
+  </si>
+  <si>
+    <t>(82)981023383</t>
+  </si>
+  <si>
+    <t>(82)982179256</t>
+  </si>
+  <si>
+    <t>(82)981353791</t>
+  </si>
+  <si>
+    <t>(82)982360568</t>
+  </si>
+  <si>
+    <t>(82)991484393</t>
+  </si>
+  <si>
+    <t>(82)99148439</t>
+  </si>
+  <si>
+    <t>(82)987755325</t>
+  </si>
+  <si>
+    <t>(82)988134811</t>
+  </si>
+  <si>
+    <t>(82)981259415</t>
+  </si>
+  <si>
+    <t>(82)981818994</t>
+  </si>
+  <si>
+    <t>(82)981130438</t>
+  </si>
+  <si>
+    <t>(82)998744515</t>
+  </si>
+  <si>
+    <t>(82)981327077</t>
+  </si>
+  <si>
+    <t>(82)981028716</t>
+  </si>
+  <si>
+    <t>(82)999960756</t>
+  </si>
+  <si>
+    <t>(82)981929557</t>
+  </si>
+  <si>
+    <t>(82)982201231</t>
+  </si>
+  <si>
+    <t>(82)981079642</t>
+  </si>
+  <si>
+    <t>(44)999165743</t>
+  </si>
+  <si>
+    <t>(82)981855109</t>
+  </si>
+  <si>
+    <t>(82) 982021690</t>
+  </si>
+  <si>
+    <t>(82)981338864</t>
+  </si>
+  <si>
+    <t>(82)981375246</t>
+  </si>
+  <si>
+    <t>(82)982238799</t>
+  </si>
+  <si>
+    <t>(82)996246994</t>
+  </si>
+  <si>
+    <t>(82)988482917</t>
+  </si>
+  <si>
+    <t>(82)981535117</t>
+  </si>
+  <si>
+    <t>(82)999153513</t>
+  </si>
+  <si>
+    <t>(82)981187337</t>
+  </si>
+  <si>
+    <t>(82)982355655</t>
+  </si>
+  <si>
+    <t>(89)998103186</t>
+  </si>
+  <si>
+    <t>(82)99070973</t>
+  </si>
+  <si>
+    <t>(82)982046061</t>
+  </si>
+  <si>
+    <t>(82)981228070</t>
+  </si>
+  <si>
+    <t>(82)999390036</t>
+  </si>
+  <si>
+    <t>(82)981079889</t>
+  </si>
+  <si>
+    <t>(82)982359145</t>
+  </si>
+  <si>
+    <t>(82)981709050</t>
+  </si>
+  <si>
+    <t>(82)981577593</t>
+  </si>
+  <si>
+    <t>(82)981332046</t>
+  </si>
+  <si>
+    <t>(82)981895600</t>
+  </si>
+  <si>
+    <t>(82)999521991</t>
+  </si>
+  <si>
+    <t>(82)981372945</t>
+  </si>
+  <si>
+    <t>(82)9666-4127</t>
+  </si>
+  <si>
+    <t>(82)981320533</t>
+  </si>
+  <si>
+    <t>(82)996149429</t>
+  </si>
+  <si>
+    <t>(82)993457227</t>
+  </si>
+  <si>
+    <t>(82)982165927</t>
+  </si>
+  <si>
+    <t>(82)981380015</t>
+  </si>
+  <si>
+    <t>(82)998878820</t>
+  </si>
+  <si>
+    <t>(82)991343663</t>
+  </si>
+  <si>
+    <t>(82)981068730</t>
+  </si>
+  <si>
+    <t>(82)981860937</t>
+  </si>
+  <si>
+    <t>(82)996699228</t>
+  </si>
+  <si>
+    <t>(82)999363722</t>
+  </si>
+  <si>
+    <t>(82)981160950</t>
+  </si>
+  <si>
+    <t>(82)999298839</t>
+  </si>
+  <si>
+    <t>(82)999588473</t>
+  </si>
+  <si>
+    <t>(82)8215-2427</t>
+  </si>
+  <si>
+    <t>(82)996823963</t>
+  </si>
+  <si>
+    <t>(82)981043092</t>
+  </si>
+  <si>
+    <t>(82)996948831</t>
+  </si>
+  <si>
+    <t>(82)999713971</t>
+  </si>
+  <si>
+    <t>(82)996644172</t>
+  </si>
+  <si>
+    <t>(82)981312440</t>
+  </si>
+  <si>
+    <t>(82)981898885</t>
+  </si>
+  <si>
+    <t>(82)982198635</t>
+  </si>
+  <si>
+    <t>(82)981722387</t>
+  </si>
+  <si>
+    <t>(82)982069863</t>
+  </si>
+  <si>
+    <t>(82)981143836</t>
+  </si>
+  <si>
+    <t>(82)981698286</t>
+  </si>
+  <si>
+    <t>(82)981144562</t>
+  </si>
+  <si>
+    <t>(82)996970664</t>
+  </si>
+  <si>
+    <t>(82)981195002</t>
+  </si>
+  <si>
+    <t>(82)981285109</t>
+  </si>
+  <si>
+    <t>(82)993061866</t>
+  </si>
+  <si>
+    <t>(82)999927964</t>
+  </si>
+  <si>
+    <t>82 981815914</t>
+  </si>
+  <si>
+    <t>(82)981507869</t>
+  </si>
+  <si>
+    <t>(82)999920891</t>
+  </si>
+  <si>
+    <t>(82)996911480</t>
+  </si>
+  <si>
+    <t>(82)982250686</t>
+  </si>
+  <si>
+    <t>(82)98202026806</t>
+  </si>
+  <si>
+    <t>(82)981574478</t>
+  </si>
+  <si>
+    <t>(82)996484185</t>
+  </si>
+  <si>
+    <t>(82)991332037</t>
+  </si>
+  <si>
+    <t>(82)982089730</t>
+  </si>
+  <si>
+    <t>(82)996121235</t>
+  </si>
+  <si>
+    <t>829 81153273</t>
+  </si>
+  <si>
+    <t>(82)998404826</t>
+  </si>
+  <si>
+    <t>(82)982286871</t>
+  </si>
+  <si>
+    <t>(82)998379106</t>
+  </si>
+  <si>
+    <t>(82)998381709</t>
+  </si>
+  <si>
+    <t>(82)981018975</t>
+  </si>
+  <si>
+    <t>(89)9810.8606</t>
+  </si>
+  <si>
+    <t>(82)999978346</t>
+  </si>
+  <si>
+    <t>(82)981134019</t>
+  </si>
+  <si>
+    <t>(82)981562675</t>
+  </si>
+  <si>
+    <t>(82)981752376</t>
+  </si>
+  <si>
+    <t>(82)981429092</t>
+  </si>
+  <si>
+    <t>(82)981305136</t>
+  </si>
+  <si>
+    <t>(82)982203623</t>
+  </si>
+  <si>
+    <t>(82)981035430</t>
+  </si>
+  <si>
+    <t>(82)981516898</t>
+  </si>
+  <si>
+    <t>(82)981027201</t>
+  </si>
+  <si>
+    <t>(82)981153769</t>
+  </si>
+  <si>
+    <t>(82)999377913</t>
+  </si>
+  <si>
+    <t>(82)998443328</t>
+  </si>
+  <si>
+    <t>(82)981948521</t>
+  </si>
+  <si>
+    <t>(82)982040480</t>
+  </si>
+  <si>
+    <t>(82)981276388</t>
+  </si>
+  <si>
+    <t>(82)981158216</t>
+  </si>
+  <si>
+    <t>(82)999577577</t>
+  </si>
+  <si>
+    <t>(82)981942233</t>
+  </si>
+  <si>
+    <t>(82)996816140</t>
+  </si>
+  <si>
+    <t>(82)998347620</t>
+  </si>
+  <si>
+    <t>(82)999841744</t>
+  </si>
+  <si>
+    <t>(82)993870245</t>
+  </si>
+  <si>
+    <t>82 9822157025</t>
+  </si>
+  <si>
+    <t>(82)981547921</t>
+  </si>
+  <si>
+    <t>(82)981478041</t>
+  </si>
+  <si>
+    <t>(82)982297108</t>
+  </si>
+  <si>
+    <t>(82)981146792</t>
   </si>
 </sst>
 </file>
@@ -9178,8 +10477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAACF0CC-07E7-49E5-BA71-65AB737EBD7D}">
   <dimension ref="A1:P624"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
+      <selection activeCell="D624" sqref="D624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9256,7 +10555,7 @@
         <v>637</v>
       </c>
       <c r="D2" t="s">
-        <v>686</v>
+        <v>2923</v>
       </c>
       <c r="E2" t="s">
         <v>756</v>
@@ -9300,7 +10599,7 @@
         <v>637</v>
       </c>
       <c r="D3" t="s">
-        <v>687</v>
+        <v>2924</v>
       </c>
       <c r="E3" t="s">
         <v>757</v>
@@ -9344,7 +10643,7 @@
         <v>638</v>
       </c>
       <c r="D4" t="s">
-        <v>688</v>
+        <v>2925</v>
       </c>
       <c r="E4" t="s">
         <v>758</v>
@@ -9388,7 +10687,7 @@
         <v>637</v>
       </c>
       <c r="D5" t="s">
-        <v>689</v>
+        <v>2926</v>
       </c>
       <c r="E5" t="s">
         <v>759</v>
@@ -9432,7 +10731,7 @@
         <v>637</v>
       </c>
       <c r="D6" t="s">
-        <v>690</v>
+        <v>748</v>
       </c>
       <c r="E6" t="s">
         <v>760</v>
@@ -9473,7 +10772,7 @@
         <v>639</v>
       </c>
       <c r="D7" t="s">
-        <v>690</v>
+        <v>2927</v>
       </c>
       <c r="E7" t="s">
         <v>761</v>
@@ -9517,7 +10816,7 @@
         <v>637</v>
       </c>
       <c r="D8" t="s">
-        <v>690</v>
+        <v>2928</v>
       </c>
       <c r="E8" t="s">
         <v>762</v>
@@ -9558,7 +10857,7 @@
         <v>637</v>
       </c>
       <c r="D9" t="s">
-        <v>691</v>
+        <v>2929</v>
       </c>
       <c r="E9" t="s">
         <v>763</v>
@@ -9602,7 +10901,7 @@
         <v>637</v>
       </c>
       <c r="D10" t="s">
-        <v>692</v>
+        <v>2930</v>
       </c>
       <c r="E10" t="s">
         <v>764</v>
@@ -9643,7 +10942,7 @@
         <v>637</v>
       </c>
       <c r="D11" t="s">
-        <v>693</v>
+        <v>2931</v>
       </c>
       <c r="E11" t="s">
         <v>765</v>
@@ -9686,8 +10985,8 @@
       <c r="C12" t="s">
         <v>640</v>
       </c>
-      <c r="D12">
-        <v>82999669377</v>
+      <c r="D12" t="s">
+        <v>2932</v>
       </c>
       <c r="E12" t="s">
         <v>766</v>
@@ -9731,7 +11030,7 @@
         <v>637</v>
       </c>
       <c r="D13" t="s">
-        <v>694</v>
+        <v>2933</v>
       </c>
       <c r="E13" t="s">
         <v>767</v>
@@ -9775,7 +11074,7 @@
         <v>637</v>
       </c>
       <c r="D14" t="s">
-        <v>695</v>
+        <v>2934</v>
       </c>
       <c r="E14" t="s">
         <v>768</v>
@@ -9819,7 +11118,7 @@
         <v>641</v>
       </c>
       <c r="D15" t="s">
-        <v>696</v>
+        <v>2935</v>
       </c>
       <c r="E15" t="s">
         <v>769</v>
@@ -9863,7 +11162,7 @@
         <v>642</v>
       </c>
       <c r="D16" t="s">
-        <v>697</v>
+        <v>2936</v>
       </c>
       <c r="E16" t="s">
         <v>770</v>
@@ -9907,7 +11206,7 @@
         <v>637</v>
       </c>
       <c r="D17" t="s">
-        <v>698</v>
+        <v>2937</v>
       </c>
       <c r="E17" t="s">
         <v>771</v>
@@ -9951,7 +11250,7 @@
         <v>643</v>
       </c>
       <c r="D18" t="s">
-        <v>699</v>
+        <v>2938</v>
       </c>
       <c r="E18" t="s">
         <v>772</v>
@@ -9992,7 +11291,7 @@
         <v>641</v>
       </c>
       <c r="D19" t="s">
-        <v>700</v>
+        <v>2939</v>
       </c>
       <c r="E19" t="s">
         <v>773</v>
@@ -10033,7 +11332,7 @@
         <v>637</v>
       </c>
       <c r="D20" t="s">
-        <v>701</v>
+        <v>2940</v>
       </c>
       <c r="E20" t="s">
         <v>774</v>
@@ -10074,7 +11373,7 @@
         <v>637</v>
       </c>
       <c r="D21" t="s">
-        <v>702</v>
+        <v>2941</v>
       </c>
       <c r="E21" t="s">
         <v>775</v>
@@ -10118,7 +11417,7 @@
         <v>637</v>
       </c>
       <c r="D22" t="s">
-        <v>703</v>
+        <v>2942</v>
       </c>
       <c r="E22" t="s">
         <v>776</v>
@@ -10162,7 +11461,7 @@
         <v>637</v>
       </c>
       <c r="D23" t="s">
-        <v>704</v>
+        <v>2943</v>
       </c>
       <c r="E23" t="s">
         <v>777</v>
@@ -10203,7 +11502,7 @@
         <v>637</v>
       </c>
       <c r="D24" t="s">
-        <v>705</v>
+        <v>748</v>
       </c>
       <c r="E24" t="s">
         <v>778</v>
@@ -10247,7 +11546,7 @@
         <v>637</v>
       </c>
       <c r="D25" t="s">
-        <v>703</v>
+        <v>2944</v>
       </c>
       <c r="E25" t="s">
         <v>779</v>
@@ -10288,7 +11587,7 @@
         <v>637</v>
       </c>
       <c r="D26" t="s">
-        <v>706</v>
+        <v>2945</v>
       </c>
       <c r="E26" t="s">
         <v>780</v>
@@ -10332,7 +11631,7 @@
         <v>637</v>
       </c>
       <c r="D27" t="s">
-        <v>707</v>
+        <v>2946</v>
       </c>
       <c r="E27" t="s">
         <v>781</v>
@@ -10376,7 +11675,7 @@
         <v>637</v>
       </c>
       <c r="D28" t="s">
-        <v>708</v>
+        <v>2947</v>
       </c>
       <c r="E28" t="s">
         <v>782</v>
@@ -10417,7 +11716,7 @@
         <v>644</v>
       </c>
       <c r="D29" t="s">
-        <v>709</v>
+        <v>2948</v>
       </c>
       <c r="E29" t="s">
         <v>783</v>
@@ -10461,7 +11760,7 @@
         <v>637</v>
       </c>
       <c r="D30" t="s">
-        <v>710</v>
+        <v>2949</v>
       </c>
       <c r="E30" t="s">
         <v>784</v>
@@ -10505,7 +11804,7 @@
         <v>645</v>
       </c>
       <c r="D31" t="s">
-        <v>711</v>
+        <v>2950</v>
       </c>
       <c r="E31" t="s">
         <v>785</v>
@@ -10549,7 +11848,7 @@
         <v>637</v>
       </c>
       <c r="D32" t="s">
-        <v>712</v>
+        <v>2951</v>
       </c>
       <c r="E32" t="s">
         <v>786</v>
@@ -10593,7 +11892,7 @@
         <v>646</v>
       </c>
       <c r="D33" t="s">
-        <v>713</v>
+        <v>2952</v>
       </c>
       <c r="E33" t="s">
         <v>787</v>
@@ -10637,7 +11936,7 @@
         <v>637</v>
       </c>
       <c r="D34" t="s">
-        <v>714</v>
+        <v>2953</v>
       </c>
       <c r="E34" t="s">
         <v>788</v>
@@ -10678,7 +11977,7 @@
         <v>637</v>
       </c>
       <c r="D35" t="s">
-        <v>715</v>
+        <v>2933</v>
       </c>
       <c r="E35" t="s">
         <v>767</v>
@@ -10719,7 +12018,7 @@
         <v>637</v>
       </c>
       <c r="D36" t="s">
-        <v>716</v>
+        <v>2954</v>
       </c>
       <c r="E36" t="s">
         <v>789</v>
@@ -10763,7 +12062,7 @@
         <v>647</v>
       </c>
       <c r="D37" t="s">
-        <v>717</v>
+        <v>2955</v>
       </c>
       <c r="E37" t="s">
         <v>790</v>
@@ -10807,7 +12106,7 @@
         <v>637</v>
       </c>
       <c r="D38" t="s">
-        <v>718</v>
+        <v>2956</v>
       </c>
       <c r="E38" t="s">
         <v>791</v>
@@ -10851,7 +12150,7 @@
         <v>637</v>
       </c>
       <c r="D39" t="s">
-        <v>719</v>
+        <v>2957</v>
       </c>
       <c r="E39" t="s">
         <v>792</v>
@@ -10895,7 +12194,7 @@
         <v>648</v>
       </c>
       <c r="D40" t="s">
-        <v>720</v>
+        <v>2958</v>
       </c>
       <c r="E40" t="s">
         <v>793</v>
@@ -10938,8 +12237,8 @@
       <c r="C41" t="s">
         <v>637</v>
       </c>
-      <c r="D41">
-        <v>82982279909</v>
+      <c r="D41" t="s">
+        <v>2959</v>
       </c>
       <c r="E41" t="s">
         <v>794</v>
@@ -10980,7 +12279,7 @@
         <v>637</v>
       </c>
       <c r="D42" t="s">
-        <v>721</v>
+        <v>2960</v>
       </c>
       <c r="E42" t="s">
         <v>795</v>
@@ -11024,7 +12323,7 @@
         <v>637</v>
       </c>
       <c r="D43" t="s">
-        <v>722</v>
+        <v>2961</v>
       </c>
       <c r="E43" t="s">
         <v>796</v>
@@ -11068,7 +12367,7 @@
         <v>649</v>
       </c>
       <c r="D44" t="s">
-        <v>723</v>
+        <v>2962</v>
       </c>
       <c r="E44" t="s">
         <v>797</v>
@@ -11112,7 +12411,7 @@
         <v>637</v>
       </c>
       <c r="D45" t="s">
-        <v>724</v>
+        <v>2963</v>
       </c>
       <c r="E45" t="s">
         <v>798</v>
@@ -11156,7 +12455,7 @@
         <v>637</v>
       </c>
       <c r="D46" t="s">
-        <v>724</v>
+        <v>2964</v>
       </c>
       <c r="E46" t="s">
         <v>799</v>
@@ -11197,7 +12496,7 @@
         <v>637</v>
       </c>
       <c r="D47" t="s">
-        <v>725</v>
+        <v>2965</v>
       </c>
       <c r="E47" t="s">
         <v>800</v>
@@ -11234,8 +12533,8 @@
       <c r="C48" t="s">
         <v>650</v>
       </c>
-      <c r="D48" t="s">
-        <v>726</v>
+      <c r="D48">
+        <v>82981436066</v>
       </c>
       <c r="E48" t="s">
         <v>801</v>
@@ -11276,7 +12575,7 @@
         <v>651</v>
       </c>
       <c r="D49" t="s">
-        <v>727</v>
+        <v>2966</v>
       </c>
       <c r="E49" t="s">
         <v>802</v>
@@ -11316,8 +12615,8 @@
       <c r="C50" t="s">
         <v>652</v>
       </c>
-      <c r="D50" t="s">
-        <v>728</v>
+      <c r="D50">
+        <v>82999166210</v>
       </c>
       <c r="E50" t="s">
         <v>803</v>
@@ -11357,8 +12656,8 @@
       <c r="C51" t="s">
         <v>637</v>
       </c>
-      <c r="D51">
-        <v>82981564812</v>
+      <c r="D51" t="s">
+        <v>2967</v>
       </c>
       <c r="E51" t="s">
         <v>804</v>
@@ -11399,7 +12698,7 @@
         <v>637</v>
       </c>
       <c r="D52" t="s">
-        <v>729</v>
+        <v>2968</v>
       </c>
       <c r="E52" t="s">
         <v>805</v>
@@ -11440,7 +12739,7 @@
         <v>653</v>
       </c>
       <c r="D53" t="s">
-        <v>730</v>
+        <v>2969</v>
       </c>
       <c r="E53" t="s">
         <v>806</v>
@@ -11481,7 +12780,7 @@
         <v>637</v>
       </c>
       <c r="D54" t="s">
-        <v>731</v>
+        <v>2970</v>
       </c>
       <c r="E54" t="s">
         <v>807</v>
@@ -11522,7 +12821,7 @@
         <v>654</v>
       </c>
       <c r="D55" t="s">
-        <v>732</v>
+        <v>2971</v>
       </c>
       <c r="E55" t="s">
         <v>808</v>
@@ -11563,7 +12862,7 @@
         <v>637</v>
       </c>
       <c r="D56" t="s">
-        <v>733</v>
+        <v>2972</v>
       </c>
       <c r="E56" t="s">
         <v>809</v>
@@ -11604,7 +12903,7 @@
         <v>641</v>
       </c>
       <c r="D57" t="s">
-        <v>734</v>
+        <v>2973</v>
       </c>
       <c r="E57" t="s">
         <v>810</v>
@@ -11645,7 +12944,7 @@
         <v>655</v>
       </c>
       <c r="D58" t="s">
-        <v>735</v>
+        <v>2974</v>
       </c>
       <c r="E58" t="s">
         <v>811</v>
@@ -11686,7 +12985,7 @@
         <v>656</v>
       </c>
       <c r="D59" t="s">
-        <v>736</v>
+        <v>2975</v>
       </c>
       <c r="E59" t="s">
         <v>812</v>
@@ -11727,7 +13026,7 @@
         <v>637</v>
       </c>
       <c r="D60" t="s">
-        <v>737</v>
+        <v>2976</v>
       </c>
       <c r="E60" t="s">
         <v>813</v>
@@ -11768,7 +13067,7 @@
         <v>637</v>
       </c>
       <c r="D61" t="s">
-        <v>738</v>
+        <v>2977</v>
       </c>
       <c r="E61" t="s">
         <v>814</v>
@@ -11805,8 +13104,8 @@
       <c r="C62" t="s">
         <v>637</v>
       </c>
-      <c r="D62">
-        <v>82981611524</v>
+      <c r="D62" t="s">
+        <v>2978</v>
       </c>
       <c r="E62" t="s">
         <v>815</v>
@@ -11847,7 +13146,7 @@
         <v>637</v>
       </c>
       <c r="D63" t="s">
-        <v>739</v>
+        <v>2979</v>
       </c>
       <c r="E63" t="s">
         <v>816</v>
@@ -11887,9 +13186,6 @@
       <c r="C64" t="s">
         <v>637</v>
       </c>
-      <c r="D64" t="s">
-        <v>740</v>
-      </c>
       <c r="E64" t="s">
         <v>817</v>
       </c>
@@ -11928,8 +13224,8 @@
       <c r="C65" t="s">
         <v>657</v>
       </c>
-      <c r="D65" t="s">
-        <v>741</v>
+      <c r="D65">
+        <v>82981668228</v>
       </c>
       <c r="E65" t="s">
         <v>818</v>
@@ -11967,7 +13263,7 @@
         <v>637</v>
       </c>
       <c r="D66" t="s">
-        <v>742</v>
+        <v>2980</v>
       </c>
       <c r="E66" t="s">
         <v>819</v>
@@ -12008,7 +13304,7 @@
         <v>637</v>
       </c>
       <c r="D67" t="s">
-        <v>743</v>
+        <v>2981</v>
       </c>
       <c r="E67" t="s">
         <v>820</v>
@@ -12045,8 +13341,8 @@
       <c r="C68" t="s">
         <v>637</v>
       </c>
-      <c r="D68" t="s">
-        <v>744</v>
+      <c r="D68">
+        <v>82981430812</v>
       </c>
       <c r="E68" t="s">
         <v>821</v>
@@ -12087,7 +13383,7 @@
         <v>637</v>
       </c>
       <c r="D69" t="s">
-        <v>745</v>
+        <v>2982</v>
       </c>
       <c r="E69" t="s">
         <v>822</v>
@@ -12128,7 +13424,7 @@
         <v>658</v>
       </c>
       <c r="D70" t="s">
-        <v>746</v>
+        <v>2983</v>
       </c>
       <c r="E70" t="s">
         <v>823</v>
@@ -12169,7 +13465,7 @@
         <v>641</v>
       </c>
       <c r="D71" t="s">
-        <v>747</v>
+        <v>2984</v>
       </c>
       <c r="E71" t="s">
         <v>824</v>
@@ -12210,7 +13506,7 @@
         <v>637</v>
       </c>
       <c r="D72" t="s">
-        <v>748</v>
+        <v>2985</v>
       </c>
       <c r="E72" t="s">
         <v>825</v>
@@ -12251,7 +13547,7 @@
         <v>637</v>
       </c>
       <c r="D73" t="s">
-        <v>749</v>
+        <v>2986</v>
       </c>
       <c r="E73" t="s">
         <v>826</v>
@@ -12292,7 +13588,7 @@
         <v>641</v>
       </c>
       <c r="D74" t="s">
-        <v>750</v>
+        <v>2987</v>
       </c>
       <c r="E74" t="s">
         <v>827</v>
@@ -12333,7 +13629,7 @@
         <v>637</v>
       </c>
       <c r="D75" t="s">
-        <v>751</v>
+        <v>2988</v>
       </c>
       <c r="E75" t="s">
         <v>828</v>
@@ -12370,8 +13666,8 @@
       <c r="C76" t="s">
         <v>637</v>
       </c>
-      <c r="D76">
-        <v>82982122001</v>
+      <c r="D76" t="s">
+        <v>2989</v>
       </c>
       <c r="E76" t="s">
         <v>829</v>
@@ -12409,7 +13705,7 @@
         <v>637</v>
       </c>
       <c r="D77" t="s">
-        <v>752</v>
+        <v>2990</v>
       </c>
       <c r="E77" t="s">
         <v>830</v>
@@ -12450,7 +13746,7 @@
         <v>637</v>
       </c>
       <c r="D78" t="s">
-        <v>753</v>
+        <v>2991</v>
       </c>
       <c r="E78" t="s">
         <v>831</v>
@@ -12491,7 +13787,7 @@
         <v>637</v>
       </c>
       <c r="D79" t="s">
-        <v>754</v>
+        <v>2992</v>
       </c>
       <c r="E79" t="s">
         <v>832</v>
@@ -12532,7 +13828,7 @@
         <v>637</v>
       </c>
       <c r="D80" t="s">
-        <v>755</v>
+        <v>2993</v>
       </c>
       <c r="E80" t="s">
         <v>833</v>
@@ -12569,6 +13865,9 @@
       <c r="C81" t="s">
         <v>637</v>
       </c>
+      <c r="D81" t="s">
+        <v>2994</v>
+      </c>
       <c r="E81" t="s">
         <v>834</v>
       </c>
@@ -12604,6 +13903,9 @@
       <c r="C82" t="s">
         <v>659</v>
       </c>
+      <c r="D82" t="s">
+        <v>2995</v>
+      </c>
       <c r="E82" t="s">
         <v>835</v>
       </c>
@@ -12642,6 +13944,9 @@
       <c r="C83" t="s">
         <v>637</v>
       </c>
+      <c r="D83" t="s">
+        <v>2996</v>
+      </c>
       <c r="E83" t="s">
         <v>836</v>
       </c>
@@ -12677,6 +13982,9 @@
       <c r="C84" t="s">
         <v>637</v>
       </c>
+      <c r="D84" t="s">
+        <v>2997</v>
+      </c>
       <c r="E84" t="s">
         <v>837</v>
       </c>
@@ -12715,6 +14023,9 @@
       <c r="C85" t="s">
         <v>637</v>
       </c>
+      <c r="D85" t="s">
+        <v>2998</v>
+      </c>
       <c r="E85" t="s">
         <v>838</v>
       </c>
@@ -12753,6 +14064,9 @@
       <c r="C86" t="s">
         <v>637</v>
       </c>
+      <c r="D86" t="s">
+        <v>2999</v>
+      </c>
       <c r="E86" t="s">
         <v>839</v>
       </c>
@@ -12788,6 +14102,9 @@
       <c r="C87" t="s">
         <v>637</v>
       </c>
+      <c r="D87" t="s">
+        <v>3000</v>
+      </c>
       <c r="E87" t="s">
         <v>840</v>
       </c>
@@ -12823,6 +14140,9 @@
       <c r="C88" t="s">
         <v>660</v>
       </c>
+      <c r="D88" t="s">
+        <v>3001</v>
+      </c>
       <c r="E88" t="s">
         <v>841</v>
       </c>
@@ -12861,6 +14181,9 @@
       <c r="C89" t="s">
         <v>637</v>
       </c>
+      <c r="D89">
+        <v>82987593288</v>
+      </c>
       <c r="E89" t="s">
         <v>842</v>
       </c>
@@ -12899,6 +14222,9 @@
       <c r="C90" t="s">
         <v>637</v>
       </c>
+      <c r="D90" t="s">
+        <v>3002</v>
+      </c>
       <c r="E90" t="s">
         <v>843</v>
       </c>
@@ -12937,6 +14263,9 @@
       <c r="C91" t="s">
         <v>661</v>
       </c>
+      <c r="D91" t="s">
+        <v>3003</v>
+      </c>
       <c r="E91" t="s">
         <v>844</v>
       </c>
@@ -12975,6 +14304,9 @@
       <c r="C92" t="s">
         <v>637</v>
       </c>
+      <c r="D92" t="s">
+        <v>3004</v>
+      </c>
       <c r="E92" t="s">
         <v>845</v>
       </c>
@@ -13013,6 +14345,9 @@
       <c r="C93" t="s">
         <v>662</v>
       </c>
+      <c r="D93" t="s">
+        <v>3005</v>
+      </c>
       <c r="E93" t="s">
         <v>846</v>
       </c>
@@ -13051,6 +14386,9 @@
       <c r="C94" t="s">
         <v>637</v>
       </c>
+      <c r="D94" t="s">
+        <v>3006</v>
+      </c>
       <c r="E94" t="s">
         <v>847</v>
       </c>
@@ -13086,6 +14424,9 @@
       <c r="C95" t="s">
         <v>637</v>
       </c>
+      <c r="D95" t="s">
+        <v>3007</v>
+      </c>
       <c r="E95" t="s">
         <v>848</v>
       </c>
@@ -13121,6 +14462,9 @@
       <c r="C96" t="s">
         <v>663</v>
       </c>
+      <c r="D96" t="s">
+        <v>3008</v>
+      </c>
       <c r="E96" t="s">
         <v>849</v>
       </c>
@@ -13159,6 +14503,9 @@
       <c r="C97" t="s">
         <v>641</v>
       </c>
+      <c r="D97" t="s">
+        <v>3009</v>
+      </c>
       <c r="E97" t="s">
         <v>849</v>
       </c>
@@ -13197,6 +14544,9 @@
       <c r="C98" t="s">
         <v>637</v>
       </c>
+      <c r="D98" t="s">
+        <v>3010</v>
+      </c>
       <c r="E98" t="s">
         <v>849</v>
       </c>
@@ -13235,6 +14585,9 @@
       <c r="C99" t="s">
         <v>637</v>
       </c>
+      <c r="D99" t="s">
+        <v>3011</v>
+      </c>
       <c r="E99" t="s">
         <v>850</v>
       </c>
@@ -13273,6 +14626,9 @@
       <c r="C100" t="s">
         <v>664</v>
       </c>
+      <c r="D100" t="s">
+        <v>3012</v>
+      </c>
       <c r="E100" t="s">
         <v>851</v>
       </c>
@@ -13308,6 +14664,9 @@
       <c r="C101" t="s">
         <v>665</v>
       </c>
+      <c r="D101" t="s">
+        <v>3013</v>
+      </c>
       <c r="E101" t="s">
         <v>852</v>
       </c>
@@ -13343,6 +14702,9 @@
       <c r="C102" t="s">
         <v>637</v>
       </c>
+      <c r="D102" t="s">
+        <v>3007</v>
+      </c>
       <c r="E102" t="s">
         <v>848</v>
       </c>
@@ -13381,6 +14743,9 @@
       <c r="C103" t="s">
         <v>666</v>
       </c>
+      <c r="D103" t="s">
+        <v>3014</v>
+      </c>
       <c r="E103" t="s">
         <v>853</v>
       </c>
@@ -13419,6 +14784,9 @@
       <c r="C104" t="s">
         <v>637</v>
       </c>
+      <c r="D104" t="s">
+        <v>3015</v>
+      </c>
       <c r="E104" t="s">
         <v>854</v>
       </c>
@@ -13457,6 +14825,9 @@
       <c r="C105" t="s">
         <v>667</v>
       </c>
+      <c r="D105" t="s">
+        <v>3003</v>
+      </c>
       <c r="E105" t="s">
         <v>844</v>
       </c>
@@ -13495,6 +14866,9 @@
       <c r="C106" t="s">
         <v>668</v>
       </c>
+      <c r="D106" t="s">
+        <v>3016</v>
+      </c>
       <c r="E106" t="s">
         <v>855</v>
       </c>
@@ -13533,6 +14907,9 @@
       <c r="C107" t="s">
         <v>637</v>
       </c>
+      <c r="D107" t="s">
+        <v>3017</v>
+      </c>
       <c r="E107" t="s">
         <v>856</v>
       </c>
@@ -13571,6 +14948,9 @@
       <c r="C108" t="s">
         <v>637</v>
       </c>
+      <c r="D108" t="s">
+        <v>3018</v>
+      </c>
       <c r="E108" t="s">
         <v>857</v>
       </c>
@@ -13609,6 +14989,9 @@
       <c r="C109" t="s">
         <v>669</v>
       </c>
+      <c r="D109" t="s">
+        <v>3019</v>
+      </c>
       <c r="E109" t="s">
         <v>858</v>
       </c>
@@ -13647,6 +15030,9 @@
       <c r="C110" t="s">
         <v>641</v>
       </c>
+      <c r="D110" t="s">
+        <v>3020</v>
+      </c>
       <c r="E110" t="s">
         <v>859</v>
       </c>
@@ -13685,6 +15071,9 @@
       <c r="C111" t="s">
         <v>670</v>
       </c>
+      <c r="D111" t="s">
+        <v>3021</v>
+      </c>
       <c r="E111" t="s">
         <v>860</v>
       </c>
@@ -13723,6 +15112,9 @@
       <c r="C112" t="s">
         <v>671</v>
       </c>
+      <c r="D112" t="s">
+        <v>3022</v>
+      </c>
       <c r="E112" t="s">
         <v>861</v>
       </c>
@@ -13761,6 +15153,9 @@
       <c r="C113" t="s">
         <v>672</v>
       </c>
+      <c r="D113" t="s">
+        <v>3023</v>
+      </c>
       <c r="E113" t="s">
         <v>862</v>
       </c>
@@ -13799,6 +15194,9 @@
       <c r="C114" t="s">
         <v>673</v>
       </c>
+      <c r="D114" t="s">
+        <v>3023</v>
+      </c>
       <c r="E114" t="s">
         <v>863</v>
       </c>
@@ -13837,6 +15235,9 @@
       <c r="C115" t="s">
         <v>637</v>
       </c>
+      <c r="D115" t="s">
+        <v>720</v>
+      </c>
       <c r="E115" t="s">
         <v>864</v>
       </c>
@@ -13872,6 +15273,9 @@
       <c r="C116" t="s">
         <v>674</v>
       </c>
+      <c r="D116" t="s">
+        <v>3024</v>
+      </c>
       <c r="E116" t="s">
         <v>865</v>
       </c>
@@ -13910,6 +15314,9 @@
       <c r="C117" t="s">
         <v>637</v>
       </c>
+      <c r="D117" t="s">
+        <v>3025</v>
+      </c>
       <c r="E117" t="s">
         <v>866</v>
       </c>
@@ -13945,6 +15352,9 @@
       <c r="C118" t="s">
         <v>675</v>
       </c>
+      <c r="D118" t="s">
+        <v>740</v>
+      </c>
       <c r="E118" t="s">
         <v>867</v>
       </c>
@@ -13980,6 +15390,9 @@
       <c r="C119" t="s">
         <v>637</v>
       </c>
+      <c r="D119">
+        <v>82981602380</v>
+      </c>
       <c r="E119" t="s">
         <v>868</v>
       </c>
@@ -14018,6 +15431,9 @@
       <c r="C120" t="s">
         <v>637</v>
       </c>
+      <c r="D120" t="s">
+        <v>3026</v>
+      </c>
       <c r="E120" t="s">
         <v>869</v>
       </c>
@@ -14056,6 +15472,9 @@
       <c r="C121" t="s">
         <v>637</v>
       </c>
+      <c r="D121" t="s">
+        <v>3027</v>
+      </c>
       <c r="E121" t="s">
         <v>870</v>
       </c>
@@ -14094,6 +15513,9 @@
       <c r="C122" t="s">
         <v>642</v>
       </c>
+      <c r="D122" t="s">
+        <v>3028</v>
+      </c>
       <c r="E122" t="s">
         <v>871</v>
       </c>
@@ -14132,6 +15554,9 @@
       <c r="C123" t="s">
         <v>676</v>
       </c>
+      <c r="D123" t="s">
+        <v>3029</v>
+      </c>
       <c r="E123" t="s">
         <v>872</v>
       </c>
@@ -14170,6 +15595,9 @@
       <c r="C124" t="s">
         <v>677</v>
       </c>
+      <c r="D124" t="s">
+        <v>3030</v>
+      </c>
       <c r="E124" t="s">
         <v>873</v>
       </c>
@@ -14208,6 +15636,9 @@
       <c r="C125" t="s">
         <v>637</v>
       </c>
+      <c r="D125" t="s">
+        <v>3031</v>
+      </c>
       <c r="E125" t="s">
         <v>874</v>
       </c>
@@ -14246,6 +15677,9 @@
       <c r="C126" t="s">
         <v>637</v>
       </c>
+      <c r="D126" t="s">
+        <v>748</v>
+      </c>
       <c r="E126" t="s">
         <v>873</v>
       </c>
@@ -14284,6 +15718,9 @@
       <c r="C127" t="s">
         <v>637</v>
       </c>
+      <c r="D127" t="s">
+        <v>3032</v>
+      </c>
       <c r="E127" t="s">
         <v>875</v>
       </c>
@@ -14322,6 +15759,9 @@
       <c r="C128" t="s">
         <v>637</v>
       </c>
+      <c r="D128" t="s">
+        <v>3033</v>
+      </c>
       <c r="E128" t="s">
         <v>876</v>
       </c>
@@ -14360,6 +15800,9 @@
       <c r="C129" t="s">
         <v>637</v>
       </c>
+      <c r="D129" t="s">
+        <v>3034</v>
+      </c>
       <c r="E129" t="s">
         <v>877</v>
       </c>
@@ -14395,6 +15838,9 @@
       <c r="C130" t="s">
         <v>678</v>
       </c>
+      <c r="D130">
+        <v>82982159708</v>
+      </c>
       <c r="E130" t="s">
         <v>878</v>
       </c>
@@ -14433,6 +15879,9 @@
       <c r="C131" t="s">
         <v>637</v>
       </c>
+      <c r="D131" t="s">
+        <v>3035</v>
+      </c>
       <c r="E131" t="s">
         <v>879</v>
       </c>
@@ -14468,6 +15917,9 @@
       <c r="C132" t="s">
         <v>637</v>
       </c>
+      <c r="D132" t="s">
+        <v>3036</v>
+      </c>
       <c r="E132" t="s">
         <v>880</v>
       </c>
@@ -14506,6 +15958,9 @@
       <c r="C133" t="s">
         <v>637</v>
       </c>
+      <c r="D133" t="s">
+        <v>3037</v>
+      </c>
       <c r="E133" t="s">
         <v>881</v>
       </c>
@@ -14544,6 +15999,9 @@
       <c r="C134" t="s">
         <v>637</v>
       </c>
+      <c r="D134" t="s">
+        <v>3038</v>
+      </c>
       <c r="E134" t="s">
         <v>882</v>
       </c>
@@ -14582,6 +16040,9 @@
       <c r="C135" t="s">
         <v>637</v>
       </c>
+      <c r="D135">
+        <v>82999999999</v>
+      </c>
       <c r="E135" t="s">
         <v>883</v>
       </c>
@@ -14617,6 +16078,9 @@
       <c r="C136" t="s">
         <v>637</v>
       </c>
+      <c r="D136" t="s">
+        <v>3039</v>
+      </c>
       <c r="E136" t="s">
         <v>884</v>
       </c>
@@ -14655,6 +16119,9 @@
       <c r="C137" t="s">
         <v>637</v>
       </c>
+      <c r="D137" t="s">
+        <v>3040</v>
+      </c>
       <c r="E137" t="s">
         <v>885</v>
       </c>
@@ -14690,6 +16157,9 @@
       <c r="C138" t="s">
         <v>679</v>
       </c>
+      <c r="D138">
+        <v>82981180386</v>
+      </c>
       <c r="E138" t="s">
         <v>886</v>
       </c>
@@ -14728,6 +16198,9 @@
       <c r="C139" t="s">
         <v>637</v>
       </c>
+      <c r="D139" t="s">
+        <v>3041</v>
+      </c>
       <c r="E139" t="s">
         <v>887</v>
       </c>
@@ -14763,6 +16236,9 @@
       <c r="C140" t="s">
         <v>637</v>
       </c>
+      <c r="D140" t="s">
+        <v>3041</v>
+      </c>
       <c r="E140" t="s">
         <v>887</v>
       </c>
@@ -14801,6 +16277,9 @@
       <c r="C141" t="s">
         <v>637</v>
       </c>
+      <c r="D141" t="s">
+        <v>3042</v>
+      </c>
       <c r="E141" t="s">
         <v>888</v>
       </c>
@@ -14839,6 +16318,9 @@
       <c r="C142" t="s">
         <v>680</v>
       </c>
+      <c r="D142">
+        <v>82999198554</v>
+      </c>
       <c r="E142" t="s">
         <v>889</v>
       </c>
@@ -14877,6 +16359,9 @@
       <c r="C143" t="s">
         <v>637</v>
       </c>
+      <c r="D143" t="s">
+        <v>3043</v>
+      </c>
       <c r="E143" t="s">
         <v>890</v>
       </c>
@@ -14915,6 +16400,9 @@
       <c r="C144" t="s">
         <v>637</v>
       </c>
+      <c r="D144" t="s">
+        <v>3044</v>
+      </c>
       <c r="E144" t="s">
         <v>891</v>
       </c>
@@ -14953,6 +16441,9 @@
       <c r="C145" t="s">
         <v>637</v>
       </c>
+      <c r="D145" t="s">
+        <v>3045</v>
+      </c>
       <c r="E145" t="s">
         <v>892</v>
       </c>
@@ -14991,6 +16482,9 @@
       <c r="C146" t="s">
         <v>657</v>
       </c>
+      <c r="D146">
+        <v>82999349021</v>
+      </c>
       <c r="E146" t="s">
         <v>893</v>
       </c>
@@ -15029,6 +16523,9 @@
       <c r="C147" t="s">
         <v>681</v>
       </c>
+      <c r="D147" t="s">
+        <v>3046</v>
+      </c>
       <c r="E147" t="s">
         <v>894</v>
       </c>
@@ -15064,6 +16561,9 @@
       <c r="C148" t="s">
         <v>637</v>
       </c>
+      <c r="D148" t="s">
+        <v>3047</v>
+      </c>
       <c r="E148" t="s">
         <v>895</v>
       </c>
@@ -15102,6 +16602,9 @@
       <c r="C149" t="s">
         <v>637</v>
       </c>
+      <c r="D149" t="s">
+        <v>3048</v>
+      </c>
       <c r="E149" t="s">
         <v>895</v>
       </c>
@@ -15137,6 +16640,9 @@
       <c r="C150" t="s">
         <v>637</v>
       </c>
+      <c r="D150" t="s">
+        <v>3049</v>
+      </c>
       <c r="E150" t="s">
         <v>896</v>
       </c>
@@ -15175,6 +16681,9 @@
       <c r="C151" t="s">
         <v>637</v>
       </c>
+      <c r="D151" t="s">
+        <v>3050</v>
+      </c>
       <c r="E151" t="s">
         <v>897</v>
       </c>
@@ -15213,6 +16722,9 @@
       <c r="C152" t="s">
         <v>637</v>
       </c>
+      <c r="D152" t="s">
+        <v>686</v>
+      </c>
       <c r="E152" t="s">
         <v>898</v>
       </c>
@@ -15248,6 +16760,9 @@
       <c r="C153" t="s">
         <v>637</v>
       </c>
+      <c r="D153" t="s">
+        <v>687</v>
+      </c>
       <c r="E153" t="s">
         <v>899</v>
       </c>
@@ -15286,6 +16801,9 @@
       <c r="C154" t="s">
         <v>637</v>
       </c>
+      <c r="D154" t="s">
+        <v>688</v>
+      </c>
       <c r="E154" t="s">
         <v>900</v>
       </c>
@@ -15324,6 +16842,9 @@
       <c r="C155" t="s">
         <v>637</v>
       </c>
+      <c r="D155" t="s">
+        <v>689</v>
+      </c>
       <c r="E155" t="s">
         <v>901</v>
       </c>
@@ -15362,6 +16883,9 @@
       <c r="C156" t="s">
         <v>637</v>
       </c>
+      <c r="D156" t="s">
+        <v>690</v>
+      </c>
       <c r="E156" t="s">
         <v>902</v>
       </c>
@@ -15397,6 +16921,9 @@
       <c r="C157" t="s">
         <v>637</v>
       </c>
+      <c r="D157" t="s">
+        <v>690</v>
+      </c>
       <c r="E157" t="s">
         <v>902</v>
       </c>
@@ -15431,6 +16958,9 @@
       </c>
       <c r="C158" t="s">
         <v>637</v>
+      </c>
+      <c r="D158" t="s">
+        <v>690</v>
       </c>
       <c r="E158" t="s">
         <v>902</v>
@@ -15467,6 +16997,9 @@
       <c r="C159" t="s">
         <v>637</v>
       </c>
+      <c r="D159" t="s">
+        <v>691</v>
+      </c>
       <c r="E159" t="s">
         <v>903</v>
       </c>
@@ -15505,6 +17038,9 @@
       <c r="C160" t="s">
         <v>637</v>
       </c>
+      <c r="D160" t="s">
+        <v>692</v>
+      </c>
       <c r="E160" t="s">
         <v>904</v>
       </c>
@@ -15540,6 +17076,9 @@
       <c r="C161" t="s">
         <v>637</v>
       </c>
+      <c r="D161" t="s">
+        <v>693</v>
+      </c>
       <c r="E161" t="s">
         <v>905</v>
       </c>
@@ -15578,6 +17117,9 @@
       <c r="C162" t="s">
         <v>682</v>
       </c>
+      <c r="D162">
+        <v>82999669377</v>
+      </c>
       <c r="E162" t="s">
         <v>906</v>
       </c>
@@ -15616,6 +17158,9 @@
       <c r="C163" t="s">
         <v>637</v>
       </c>
+      <c r="D163" t="s">
+        <v>694</v>
+      </c>
       <c r="E163" t="s">
         <v>907</v>
       </c>
@@ -15651,6 +17196,9 @@
       <c r="C164" t="s">
         <v>637</v>
       </c>
+      <c r="D164" t="s">
+        <v>695</v>
+      </c>
       <c r="E164" t="s">
         <v>908</v>
       </c>
@@ -15689,6 +17237,9 @@
       <c r="C165" t="s">
         <v>683</v>
       </c>
+      <c r="D165" t="s">
+        <v>696</v>
+      </c>
       <c r="E165" t="s">
         <v>909</v>
       </c>
@@ -15727,6 +17278,9 @@
       <c r="C166" t="s">
         <v>637</v>
       </c>
+      <c r="D166" t="s">
+        <v>697</v>
+      </c>
       <c r="E166" t="s">
         <v>910</v>
       </c>
@@ -15762,6 +17316,9 @@
       <c r="C167" t="s">
         <v>637</v>
       </c>
+      <c r="D167" t="s">
+        <v>698</v>
+      </c>
       <c r="E167" t="s">
         <v>911</v>
       </c>
@@ -15797,6 +17354,9 @@
       <c r="C168" t="s">
         <v>684</v>
       </c>
+      <c r="D168" t="s">
+        <v>699</v>
+      </c>
       <c r="E168" t="s">
         <v>912</v>
       </c>
@@ -15832,6 +17392,9 @@
       <c r="C169" t="s">
         <v>637</v>
       </c>
+      <c r="D169" t="s">
+        <v>700</v>
+      </c>
       <c r="E169" t="s">
         <v>913</v>
       </c>
@@ -15867,6 +17430,9 @@
       <c r="C170" t="s">
         <v>637</v>
       </c>
+      <c r="D170" t="s">
+        <v>701</v>
+      </c>
       <c r="E170" t="s">
         <v>914</v>
       </c>
@@ -15902,6 +17468,9 @@
       <c r="C171" t="s">
         <v>685</v>
       </c>
+      <c r="D171" t="s">
+        <v>702</v>
+      </c>
       <c r="E171" t="s">
         <v>915</v>
       </c>
@@ -15937,6 +17506,9 @@
       <c r="C172" t="s">
         <v>637</v>
       </c>
+      <c r="D172" t="s">
+        <v>703</v>
+      </c>
       <c r="E172" t="s">
         <v>916</v>
       </c>
@@ -15975,6 +17547,9 @@
       <c r="C173" t="s">
         <v>637</v>
       </c>
+      <c r="D173" t="s">
+        <v>704</v>
+      </c>
       <c r="E173" t="s">
         <v>917</v>
       </c>
@@ -16010,6 +17585,9 @@
       <c r="C174" t="s">
         <v>637</v>
       </c>
+      <c r="D174" t="s">
+        <v>705</v>
+      </c>
       <c r="E174" t="s">
         <v>918</v>
       </c>
@@ -16048,6 +17626,9 @@
       <c r="C175" t="s">
         <v>637</v>
       </c>
+      <c r="D175" t="s">
+        <v>703</v>
+      </c>
       <c r="E175" t="s">
         <v>916</v>
       </c>
@@ -16083,6 +17664,9 @@
       <c r="B176" t="s">
         <v>189</v>
       </c>
+      <c r="D176" t="s">
+        <v>706</v>
+      </c>
       <c r="E176" t="s">
         <v>919</v>
       </c>
@@ -16121,6 +17705,9 @@
       <c r="C177" t="s">
         <v>2090</v>
       </c>
+      <c r="D177" t="s">
+        <v>707</v>
+      </c>
       <c r="E177" t="s">
         <v>920</v>
       </c>
@@ -16159,6 +17746,9 @@
       <c r="C178" t="s">
         <v>637</v>
       </c>
+      <c r="D178" t="s">
+        <v>708</v>
+      </c>
       <c r="E178" t="s">
         <v>921</v>
       </c>
@@ -16197,6 +17787,9 @@
       <c r="C179" t="s">
         <v>637</v>
       </c>
+      <c r="D179" t="s">
+        <v>709</v>
+      </c>
       <c r="E179" t="s">
         <v>922</v>
       </c>
@@ -16235,6 +17828,9 @@
       <c r="C180" t="s">
         <v>637</v>
       </c>
+      <c r="D180" t="s">
+        <v>710</v>
+      </c>
       <c r="E180" t="s">
         <v>923</v>
       </c>
@@ -16270,6 +17866,9 @@
       <c r="C181" t="s">
         <v>647</v>
       </c>
+      <c r="D181" t="s">
+        <v>711</v>
+      </c>
       <c r="E181" t="s">
         <v>924</v>
       </c>
@@ -16308,6 +17907,9 @@
       <c r="C182" t="s">
         <v>637</v>
       </c>
+      <c r="D182" t="s">
+        <v>712</v>
+      </c>
       <c r="E182" t="s">
         <v>925</v>
       </c>
@@ -16346,6 +17948,9 @@
       <c r="C183" t="s">
         <v>2091</v>
       </c>
+      <c r="D183" t="s">
+        <v>713</v>
+      </c>
       <c r="E183" t="s">
         <v>926</v>
       </c>
@@ -16384,6 +17989,9 @@
       <c r="C184" t="s">
         <v>2092</v>
       </c>
+      <c r="D184" t="s">
+        <v>714</v>
+      </c>
       <c r="E184" t="s">
         <v>927</v>
       </c>
@@ -16419,6 +18027,9 @@
       <c r="C185" t="s">
         <v>641</v>
       </c>
+      <c r="D185" t="s">
+        <v>715</v>
+      </c>
       <c r="E185" t="s">
         <v>928</v>
       </c>
@@ -16457,6 +18068,9 @@
       <c r="C186" t="s">
         <v>637</v>
       </c>
+      <c r="D186" t="s">
+        <v>716</v>
+      </c>
       <c r="E186" t="s">
         <v>929</v>
       </c>
@@ -16492,6 +18106,9 @@
       <c r="C187" t="s">
         <v>641</v>
       </c>
+      <c r="D187" t="s">
+        <v>717</v>
+      </c>
       <c r="E187" t="s">
         <v>930</v>
       </c>
@@ -16530,6 +18147,9 @@
       <c r="C188" t="s">
         <v>2093</v>
       </c>
+      <c r="D188" t="s">
+        <v>718</v>
+      </c>
       <c r="E188" t="s">
         <v>931</v>
       </c>
@@ -16565,6 +18185,9 @@
       <c r="C189" t="s">
         <v>641</v>
       </c>
+      <c r="D189" t="s">
+        <v>719</v>
+      </c>
       <c r="E189" t="s">
         <v>932</v>
       </c>
@@ -16603,6 +18226,9 @@
       <c r="C190" t="s">
         <v>637</v>
       </c>
+      <c r="D190" t="s">
+        <v>720</v>
+      </c>
       <c r="E190" t="s">
         <v>933</v>
       </c>
@@ -16638,6 +18264,9 @@
       <c r="C191" t="s">
         <v>2094</v>
       </c>
+      <c r="D191">
+        <v>82982279909</v>
+      </c>
       <c r="E191" t="s">
         <v>934</v>
       </c>
@@ -16676,6 +18305,9 @@
       <c r="C192" t="s">
         <v>637</v>
       </c>
+      <c r="D192" t="s">
+        <v>721</v>
+      </c>
       <c r="E192" t="s">
         <v>935</v>
       </c>
@@ -16714,6 +18346,9 @@
       <c r="C193" t="s">
         <v>637</v>
       </c>
+      <c r="D193" t="s">
+        <v>722</v>
+      </c>
       <c r="E193" t="s">
         <v>936</v>
       </c>
@@ -16752,6 +18387,9 @@
       <c r="C194" t="s">
         <v>641</v>
       </c>
+      <c r="D194" t="s">
+        <v>723</v>
+      </c>
       <c r="E194" t="s">
         <v>937</v>
       </c>
@@ -16787,6 +18425,9 @@
       <c r="C195" t="s">
         <v>2095</v>
       </c>
+      <c r="D195" t="s">
+        <v>724</v>
+      </c>
       <c r="E195" t="s">
         <v>938</v>
       </c>
@@ -16825,6 +18466,9 @@
       <c r="C196" t="s">
         <v>637</v>
       </c>
+      <c r="D196" t="s">
+        <v>724</v>
+      </c>
       <c r="E196" t="s">
         <v>939</v>
       </c>
@@ -16860,6 +18504,9 @@
       <c r="C197" t="s">
         <v>2096</v>
       </c>
+      <c r="D197" t="s">
+        <v>725</v>
+      </c>
       <c r="E197" t="s">
         <v>940</v>
       </c>
@@ -16898,6 +18545,9 @@
       <c r="C198" t="s">
         <v>2097</v>
       </c>
+      <c r="D198" t="s">
+        <v>726</v>
+      </c>
       <c r="E198" t="s">
         <v>941</v>
       </c>
@@ -16936,6 +18586,9 @@
       <c r="C199" t="s">
         <v>641</v>
       </c>
+      <c r="D199" t="s">
+        <v>727</v>
+      </c>
       <c r="E199" t="s">
         <v>941</v>
       </c>
@@ -16974,6 +18627,9 @@
       <c r="C200" t="s">
         <v>637</v>
       </c>
+      <c r="D200" t="s">
+        <v>728</v>
+      </c>
       <c r="E200" t="s">
         <v>942</v>
       </c>
@@ -17012,6 +18668,9 @@
       <c r="C201" t="s">
         <v>2098</v>
       </c>
+      <c r="D201">
+        <v>82981564812</v>
+      </c>
       <c r="E201" t="s">
         <v>943</v>
       </c>
@@ -17050,6 +18709,9 @@
       <c r="C202" t="s">
         <v>637</v>
       </c>
+      <c r="D202" t="s">
+        <v>729</v>
+      </c>
       <c r="E202" t="s">
         <v>944</v>
       </c>
@@ -17085,6 +18747,9 @@
       <c r="C203" t="s">
         <v>2099</v>
       </c>
+      <c r="D203" t="s">
+        <v>730</v>
+      </c>
       <c r="E203" t="s">
         <v>945</v>
       </c>
@@ -17120,6 +18785,9 @@
       <c r="C204" t="s">
         <v>637</v>
       </c>
+      <c r="D204" t="s">
+        <v>731</v>
+      </c>
       <c r="E204" t="s">
         <v>946</v>
       </c>
@@ -17158,6 +18826,9 @@
       <c r="C205" t="s">
         <v>637</v>
       </c>
+      <c r="D205" t="s">
+        <v>732</v>
+      </c>
       <c r="E205" t="s">
         <v>947</v>
       </c>
@@ -17196,6 +18867,9 @@
       <c r="C206" t="s">
         <v>637</v>
       </c>
+      <c r="D206" t="s">
+        <v>733</v>
+      </c>
       <c r="E206" t="s">
         <v>948</v>
       </c>
@@ -17234,6 +18908,9 @@
       <c r="C207" t="s">
         <v>2100</v>
       </c>
+      <c r="D207" t="s">
+        <v>734</v>
+      </c>
       <c r="E207" t="s">
         <v>949</v>
       </c>
@@ -17272,6 +18949,9 @@
       <c r="C208" t="s">
         <v>2101</v>
       </c>
+      <c r="D208" t="s">
+        <v>735</v>
+      </c>
       <c r="E208" t="s">
         <v>950</v>
       </c>
@@ -17307,6 +18987,9 @@
       <c r="C209" t="s">
         <v>637</v>
       </c>
+      <c r="D209" t="s">
+        <v>736</v>
+      </c>
       <c r="E209" t="s">
         <v>951</v>
       </c>
@@ -17342,6 +19025,9 @@
       <c r="C210" t="s">
         <v>642</v>
       </c>
+      <c r="D210" t="s">
+        <v>737</v>
+      </c>
       <c r="E210" t="s">
         <v>952</v>
       </c>
@@ -17380,6 +19066,9 @@
       <c r="C211" t="s">
         <v>637</v>
       </c>
+      <c r="D211" t="s">
+        <v>738</v>
+      </c>
       <c r="E211" t="s">
         <v>953</v>
       </c>
@@ -17418,6 +19107,9 @@
       <c r="C212" t="s">
         <v>657</v>
       </c>
+      <c r="D212">
+        <v>82981611524</v>
+      </c>
       <c r="E212" t="s">
         <v>954</v>
       </c>
@@ -17456,6 +19148,9 @@
       <c r="C213" t="s">
         <v>637</v>
       </c>
+      <c r="D213" t="s">
+        <v>739</v>
+      </c>
       <c r="E213" t="s">
         <v>955</v>
       </c>
@@ -17494,6 +19189,9 @@
       <c r="C214" t="s">
         <v>637</v>
       </c>
+      <c r="D214" t="s">
+        <v>740</v>
+      </c>
       <c r="E214" t="s">
         <v>956</v>
       </c>
@@ -17529,6 +19227,9 @@
       <c r="C215" t="s">
         <v>637</v>
       </c>
+      <c r="D215" t="s">
+        <v>741</v>
+      </c>
       <c r="E215" t="s">
         <v>957</v>
       </c>
@@ -17567,6 +19268,9 @@
       <c r="C216" t="s">
         <v>637</v>
       </c>
+      <c r="D216" t="s">
+        <v>742</v>
+      </c>
       <c r="E216" t="s">
         <v>958</v>
       </c>
@@ -17605,6 +19309,9 @@
       <c r="C217" t="s">
         <v>642</v>
       </c>
+      <c r="D217" t="s">
+        <v>743</v>
+      </c>
       <c r="E217" t="s">
         <v>959</v>
       </c>
@@ -17643,6 +19350,9 @@
       <c r="C218" t="s">
         <v>2102</v>
       </c>
+      <c r="D218" t="s">
+        <v>744</v>
+      </c>
       <c r="E218" t="s">
         <v>960</v>
       </c>
@@ -17681,6 +19391,9 @@
       <c r="C219" t="s">
         <v>2103</v>
       </c>
+      <c r="D219" t="s">
+        <v>745</v>
+      </c>
       <c r="E219" t="s">
         <v>961</v>
       </c>
@@ -17719,6 +19432,9 @@
       <c r="C220" t="s">
         <v>637</v>
       </c>
+      <c r="D220" t="s">
+        <v>746</v>
+      </c>
       <c r="E220" t="s">
         <v>962</v>
       </c>
@@ -17757,6 +19473,9 @@
       <c r="C221" t="s">
         <v>637</v>
       </c>
+      <c r="D221" t="s">
+        <v>747</v>
+      </c>
       <c r="E221" t="s">
         <v>963</v>
       </c>
@@ -17795,6 +19514,9 @@
       <c r="C222" t="s">
         <v>637</v>
       </c>
+      <c r="D222" t="s">
+        <v>748</v>
+      </c>
       <c r="E222" t="s">
         <v>964</v>
       </c>
@@ -17830,6 +19552,9 @@
       <c r="C223" t="s">
         <v>637</v>
       </c>
+      <c r="D223" t="s">
+        <v>749</v>
+      </c>
       <c r="E223" t="s">
         <v>965</v>
       </c>
@@ -17868,6 +19593,9 @@
       <c r="C224" t="s">
         <v>637</v>
       </c>
+      <c r="D224" t="s">
+        <v>750</v>
+      </c>
       <c r="E224" t="s">
         <v>966</v>
       </c>
@@ -17906,6 +19634,9 @@
       <c r="C225" t="s">
         <v>2104</v>
       </c>
+      <c r="D225" t="s">
+        <v>751</v>
+      </c>
       <c r="E225" t="s">
         <v>967</v>
       </c>
@@ -17944,6 +19675,9 @@
       <c r="C226" t="s">
         <v>2105</v>
       </c>
+      <c r="D226">
+        <v>82982122001</v>
+      </c>
       <c r="E226" t="s">
         <v>968</v>
       </c>
@@ -17982,6 +19716,9 @@
       <c r="C227" t="s">
         <v>2105</v>
       </c>
+      <c r="D227" t="s">
+        <v>752</v>
+      </c>
       <c r="E227" t="s">
         <v>968</v>
       </c>
@@ -18020,6 +19757,9 @@
       <c r="C228" t="s">
         <v>637</v>
       </c>
+      <c r="D228" t="s">
+        <v>753</v>
+      </c>
       <c r="E228" t="s">
         <v>969</v>
       </c>
@@ -18055,6 +19795,9 @@
       <c r="C229" t="s">
         <v>2106</v>
       </c>
+      <c r="D229" t="s">
+        <v>754</v>
+      </c>
       <c r="E229" t="s">
         <v>970</v>
       </c>
@@ -18093,6 +19836,9 @@
       <c r="C230" t="s">
         <v>637</v>
       </c>
+      <c r="D230" t="s">
+        <v>755</v>
+      </c>
       <c r="E230" t="s">
         <v>971</v>
       </c>
@@ -18169,6 +19915,9 @@
       <c r="C232" t="s">
         <v>637</v>
       </c>
+      <c r="D232" t="s">
+        <v>3051</v>
+      </c>
       <c r="E232" t="s">
         <v>973</v>
       </c>
@@ -18245,6 +19994,9 @@
       <c r="C234" t="s">
         <v>2108</v>
       </c>
+      <c r="D234" t="s">
+        <v>3051</v>
+      </c>
       <c r="E234" t="s">
         <v>973</v>
       </c>
@@ -18283,6 +20035,9 @@
       <c r="C235" t="s">
         <v>637</v>
       </c>
+      <c r="D235" t="s">
+        <v>3052</v>
+      </c>
       <c r="E235" t="s">
         <v>974</v>
       </c>
@@ -18321,6 +20076,9 @@
       <c r="C236" t="s">
         <v>2109</v>
       </c>
+      <c r="D236" t="s">
+        <v>3053</v>
+      </c>
       <c r="E236" t="s">
         <v>975</v>
       </c>
@@ -18359,6 +20117,9 @@
       <c r="C237" t="s">
         <v>641</v>
       </c>
+      <c r="D237" t="s">
+        <v>3054</v>
+      </c>
       <c r="E237" t="s">
         <v>976</v>
       </c>
@@ -18397,6 +20158,9 @@
       <c r="C238" t="s">
         <v>637</v>
       </c>
+      <c r="D238" t="s">
+        <v>3055</v>
+      </c>
       <c r="E238" t="s">
         <v>977</v>
       </c>
@@ -18435,6 +20199,9 @@
       <c r="C239" t="s">
         <v>637</v>
       </c>
+      <c r="D239">
+        <v>82981674711</v>
+      </c>
       <c r="E239" t="s">
         <v>978</v>
       </c>
@@ -18470,6 +20237,9 @@
       <c r="C240" t="s">
         <v>637</v>
       </c>
+      <c r="D240" t="s">
+        <v>3056</v>
+      </c>
       <c r="E240" t="s">
         <v>979</v>
       </c>
@@ -18508,6 +20278,9 @@
       <c r="C241" t="s">
         <v>2110</v>
       </c>
+      <c r="D241" t="s">
+        <v>3057</v>
+      </c>
       <c r="E241" t="s">
         <v>980</v>
       </c>
@@ -18546,6 +20319,9 @@
       <c r="C242" t="s">
         <v>637</v>
       </c>
+      <c r="D242" t="s">
+        <v>3058</v>
+      </c>
       <c r="E242" t="s">
         <v>980</v>
       </c>
@@ -18584,6 +20360,9 @@
       <c r="C243" t="s">
         <v>2111</v>
       </c>
+      <c r="D243" t="s">
+        <v>3059</v>
+      </c>
       <c r="E243" t="s">
         <v>981</v>
       </c>
@@ -18622,6 +20401,9 @@
       <c r="C244" t="s">
         <v>2112</v>
       </c>
+      <c r="D244" t="s">
+        <v>3060</v>
+      </c>
       <c r="E244" t="s">
         <v>982</v>
       </c>
@@ -18660,6 +20442,9 @@
       <c r="C245" t="s">
         <v>641</v>
       </c>
+      <c r="D245" t="s">
+        <v>3061</v>
+      </c>
       <c r="E245" t="s">
         <v>983</v>
       </c>
@@ -18698,6 +20483,9 @@
       <c r="C246" t="s">
         <v>2113</v>
       </c>
+      <c r="D246">
+        <v>82996258111</v>
+      </c>
       <c r="E246" t="s">
         <v>984</v>
       </c>
@@ -18736,6 +20524,9 @@
       <c r="C247" t="s">
         <v>637</v>
       </c>
+      <c r="D247" t="s">
+        <v>3062</v>
+      </c>
       <c r="E247" t="s">
         <v>985</v>
       </c>
@@ -18774,6 +20565,9 @@
       <c r="C248" t="s">
         <v>637</v>
       </c>
+      <c r="D248" t="s">
+        <v>748</v>
+      </c>
       <c r="E248" t="s">
         <v>986</v>
       </c>
@@ -18809,6 +20603,9 @@
       <c r="C249" t="s">
         <v>637</v>
       </c>
+      <c r="D249" t="s">
+        <v>3063</v>
+      </c>
       <c r="E249" t="s">
         <v>987</v>
       </c>
@@ -18844,6 +20641,9 @@
       <c r="C250" t="s">
         <v>637</v>
       </c>
+      <c r="D250">
+        <v>82981538586</v>
+      </c>
       <c r="E250" t="s">
         <v>988</v>
       </c>
@@ -18879,6 +20679,9 @@
       <c r="C251" t="s">
         <v>2114</v>
       </c>
+      <c r="D251">
+        <v>8299269817</v>
+      </c>
       <c r="E251" t="s">
         <v>989</v>
       </c>
@@ -18917,6 +20720,9 @@
       <c r="C252" t="s">
         <v>637</v>
       </c>
+      <c r="D252" t="s">
+        <v>3064</v>
+      </c>
       <c r="E252" t="s">
         <v>990</v>
       </c>
@@ -18952,6 +20758,9 @@
       <c r="C253" t="s">
         <v>2115</v>
       </c>
+      <c r="D253" t="s">
+        <v>3065</v>
+      </c>
       <c r="E253" t="s">
         <v>991</v>
       </c>
@@ -18990,6 +20799,9 @@
       <c r="C254" t="s">
         <v>637</v>
       </c>
+      <c r="D254" t="s">
+        <v>3066</v>
+      </c>
       <c r="E254" t="s">
         <v>992</v>
       </c>
@@ -19028,6 +20840,9 @@
       <c r="C255" t="s">
         <v>2116</v>
       </c>
+      <c r="D255" t="s">
+        <v>3067</v>
+      </c>
       <c r="E255" t="s">
         <v>993</v>
       </c>
@@ -19066,6 +20881,9 @@
       <c r="C256" t="s">
         <v>637</v>
       </c>
+      <c r="D256" t="s">
+        <v>3068</v>
+      </c>
       <c r="E256" t="s">
         <v>994</v>
       </c>
@@ -19104,6 +20922,9 @@
       <c r="C257" t="s">
         <v>641</v>
       </c>
+      <c r="D257" t="s">
+        <v>3069</v>
+      </c>
       <c r="E257" t="s">
         <v>995</v>
       </c>
@@ -19142,6 +20963,9 @@
       <c r="C258" t="s">
         <v>642</v>
       </c>
+      <c r="D258" t="s">
+        <v>3070</v>
+      </c>
       <c r="E258" t="s">
         <v>996</v>
       </c>
@@ -19180,6 +21004,9 @@
       <c r="C259" t="s">
         <v>2117</v>
       </c>
+      <c r="D259" t="s">
+        <v>3071</v>
+      </c>
       <c r="E259" t="s">
         <v>997</v>
       </c>
@@ -19215,6 +21042,9 @@
       <c r="C260" t="s">
         <v>637</v>
       </c>
+      <c r="D260" t="s">
+        <v>3072</v>
+      </c>
       <c r="E260" t="s">
         <v>998</v>
       </c>
@@ -19253,6 +21083,9 @@
       <c r="C261" t="s">
         <v>637</v>
       </c>
+      <c r="D261" t="s">
+        <v>3073</v>
+      </c>
       <c r="E261" t="s">
         <v>999</v>
       </c>
@@ -19288,6 +21121,9 @@
       <c r="C262" t="s">
         <v>637</v>
       </c>
+      <c r="D262" t="s">
+        <v>3074</v>
+      </c>
       <c r="E262" t="s">
         <v>1000</v>
       </c>
@@ -19323,6 +21159,9 @@
       <c r="C263" t="s">
         <v>637</v>
       </c>
+      <c r="D263" t="s">
+        <v>3075</v>
+      </c>
       <c r="E263" t="s">
         <v>1001</v>
       </c>
@@ -19361,6 +21200,9 @@
       <c r="C264" t="s">
         <v>2118</v>
       </c>
+      <c r="D264" t="s">
+        <v>3076</v>
+      </c>
       <c r="E264" t="s">
         <v>1002</v>
       </c>
@@ -19399,6 +21241,9 @@
       <c r="C265" t="s">
         <v>2119</v>
       </c>
+      <c r="D265" t="s">
+        <v>3077</v>
+      </c>
       <c r="E265" t="s">
         <v>1003</v>
       </c>
@@ -19437,6 +21282,9 @@
       <c r="C266" t="s">
         <v>637</v>
       </c>
+      <c r="D266" t="s">
+        <v>3078</v>
+      </c>
       <c r="E266" t="s">
         <v>1004</v>
       </c>
@@ -19472,6 +21320,9 @@
       <c r="C267" t="s">
         <v>637</v>
       </c>
+      <c r="D267" t="s">
+        <v>3077</v>
+      </c>
       <c r="E267" t="s">
         <v>1003</v>
       </c>
@@ -19507,6 +21358,9 @@
       <c r="C268" t="s">
         <v>637</v>
       </c>
+      <c r="D268" t="s">
+        <v>3079</v>
+      </c>
       <c r="E268" t="s">
         <v>1005</v>
       </c>
@@ -19545,6 +21399,9 @@
       <c r="C269" t="s">
         <v>2120</v>
       </c>
+      <c r="D269" t="s">
+        <v>3080</v>
+      </c>
       <c r="E269" t="s">
         <v>1006</v>
       </c>
@@ -19583,6 +21440,9 @@
       <c r="C270" t="s">
         <v>641</v>
       </c>
+      <c r="D270" t="s">
+        <v>3081</v>
+      </c>
       <c r="E270" t="s">
         <v>1007</v>
       </c>
@@ -19621,6 +21481,9 @@
       <c r="C271" t="s">
         <v>637</v>
       </c>
+      <c r="D271" t="s">
+        <v>3082</v>
+      </c>
       <c r="E271" t="s">
         <v>1008</v>
       </c>
@@ -19659,6 +21522,9 @@
       <c r="C272" t="s">
         <v>637</v>
       </c>
+      <c r="D272">
+        <v>82981480322</v>
+      </c>
       <c r="E272" t="s">
         <v>1009</v>
       </c>
@@ -19697,6 +21563,9 @@
       <c r="C273" t="s">
         <v>637</v>
       </c>
+      <c r="D273" t="s">
+        <v>748</v>
+      </c>
       <c r="E273" t="s">
         <v>1010</v>
       </c>
@@ -19735,6 +21604,9 @@
       <c r="C274" t="s">
         <v>2121</v>
       </c>
+      <c r="D274" t="s">
+        <v>3083</v>
+      </c>
       <c r="E274" t="s">
         <v>1011</v>
       </c>
@@ -19773,6 +21645,9 @@
       <c r="C275" t="s">
         <v>637</v>
       </c>
+      <c r="D275" t="s">
+        <v>3084</v>
+      </c>
       <c r="E275" t="s">
         <v>1012</v>
       </c>
@@ -19811,6 +21686,9 @@
       <c r="C276" t="s">
         <v>2122</v>
       </c>
+      <c r="D276" t="s">
+        <v>3085</v>
+      </c>
       <c r="E276" t="s">
         <v>1013</v>
       </c>
@@ -19849,6 +21727,9 @@
       <c r="C277" t="s">
         <v>680</v>
       </c>
+      <c r="D277" t="s">
+        <v>3086</v>
+      </c>
       <c r="E277" t="s">
         <v>1014</v>
       </c>
@@ -19922,6 +21803,9 @@
       <c r="C279" t="s">
         <v>637</v>
       </c>
+      <c r="D279" t="s">
+        <v>3087</v>
+      </c>
       <c r="E279" t="s">
         <v>1016</v>
       </c>
@@ -19995,6 +21879,9 @@
       <c r="C281" t="s">
         <v>2123</v>
       </c>
+      <c r="D281" t="s">
+        <v>3088</v>
+      </c>
       <c r="E281" t="s">
         <v>1018</v>
       </c>
@@ -20033,6 +21920,9 @@
       <c r="C282" t="s">
         <v>637</v>
       </c>
+      <c r="D282" t="s">
+        <v>3089</v>
+      </c>
       <c r="E282" t="s">
         <v>1019</v>
       </c>
@@ -20071,6 +21961,9 @@
       <c r="C283" t="s">
         <v>637</v>
       </c>
+      <c r="D283" t="s">
+        <v>3090</v>
+      </c>
       <c r="E283" t="s">
         <v>1020</v>
       </c>
@@ -20109,6 +22002,9 @@
       <c r="C284" t="s">
         <v>637</v>
       </c>
+      <c r="D284" t="s">
+        <v>3091</v>
+      </c>
       <c r="E284" t="s">
         <v>1021</v>
       </c>
@@ -20147,6 +22043,9 @@
       <c r="C285" t="s">
         <v>641</v>
       </c>
+      <c r="D285" t="s">
+        <v>3092</v>
+      </c>
       <c r="E285" t="s">
         <v>1022</v>
       </c>
@@ -20185,6 +22084,9 @@
       <c r="C286" t="s">
         <v>637</v>
       </c>
+      <c r="D286" t="s">
+        <v>3093</v>
+      </c>
       <c r="E286" t="s">
         <v>1023</v>
       </c>
@@ -20220,6 +22122,9 @@
       <c r="C287" t="s">
         <v>637</v>
       </c>
+      <c r="D287">
+        <v>82996700919</v>
+      </c>
       <c r="E287" t="s">
         <v>1024</v>
       </c>
@@ -20258,6 +22163,9 @@
       <c r="C288" t="s">
         <v>637</v>
       </c>
+      <c r="D288" t="s">
+        <v>3094</v>
+      </c>
       <c r="E288" t="s">
         <v>1025</v>
       </c>
@@ -20296,6 +22204,9 @@
       <c r="C289" t="s">
         <v>637</v>
       </c>
+      <c r="D289" t="s">
+        <v>3095</v>
+      </c>
       <c r="E289" t="s">
         <v>1026</v>
       </c>
@@ -20334,6 +22245,9 @@
       <c r="C290" t="s">
         <v>637</v>
       </c>
+      <c r="D290" t="s">
+        <v>3096</v>
+      </c>
       <c r="E290" t="s">
         <v>1027</v>
       </c>
@@ -20369,6 +22283,9 @@
       <c r="C291" t="s">
         <v>637</v>
       </c>
+      <c r="D291" t="s">
+        <v>3097</v>
+      </c>
       <c r="E291" t="s">
         <v>1028</v>
       </c>
@@ -20404,6 +22321,9 @@
       <c r="C292" t="s">
         <v>637</v>
       </c>
+      <c r="D292" t="s">
+        <v>3098</v>
+      </c>
       <c r="E292" t="s">
         <v>1028</v>
       </c>
@@ -20442,6 +22362,9 @@
       <c r="C293" t="s">
         <v>637</v>
       </c>
+      <c r="D293" t="s">
+        <v>3097</v>
+      </c>
       <c r="E293" t="s">
         <v>1028</v>
       </c>
@@ -20480,6 +22403,9 @@
       <c r="C294" t="s">
         <v>637</v>
       </c>
+      <c r="D294" t="s">
+        <v>3099</v>
+      </c>
       <c r="E294" t="s">
         <v>1029</v>
       </c>
@@ -20515,6 +22441,9 @@
       <c r="C295" t="s">
         <v>637</v>
       </c>
+      <c r="D295" t="s">
+        <v>3100</v>
+      </c>
       <c r="E295" t="s">
         <v>1030</v>
       </c>
@@ -20550,6 +22479,9 @@
       <c r="C296" t="s">
         <v>637</v>
       </c>
+      <c r="D296" t="s">
+        <v>3101</v>
+      </c>
       <c r="E296" t="s">
         <v>1031</v>
       </c>
@@ -20588,6 +22520,9 @@
       <c r="C297" t="s">
         <v>637</v>
       </c>
+      <c r="D297" t="s">
+        <v>3102</v>
+      </c>
       <c r="E297" t="s">
         <v>1032</v>
       </c>
@@ -20623,6 +22558,9 @@
       <c r="C298" t="s">
         <v>637</v>
       </c>
+      <c r="D298" t="s">
+        <v>3103</v>
+      </c>
       <c r="E298" t="s">
         <v>1033</v>
       </c>
@@ -20661,6 +22599,9 @@
       <c r="C299" t="s">
         <v>637</v>
       </c>
+      <c r="D299" t="s">
+        <v>3104</v>
+      </c>
       <c r="E299" t="s">
         <v>1034</v>
       </c>
@@ -20696,6 +22637,9 @@
       <c r="C300" t="s">
         <v>2124</v>
       </c>
+      <c r="D300" t="s">
+        <v>737</v>
+      </c>
       <c r="E300" t="s">
         <v>1035</v>
       </c>
@@ -20734,6 +22678,9 @@
       <c r="C301" t="s">
         <v>637</v>
       </c>
+      <c r="D301" t="s">
+        <v>748</v>
+      </c>
       <c r="E301" t="s">
         <v>1036</v>
       </c>
@@ -20772,6 +22719,9 @@
       <c r="C302" t="s">
         <v>2125</v>
       </c>
+      <c r="D302" t="s">
+        <v>3105</v>
+      </c>
       <c r="E302" t="s">
         <v>1037</v>
       </c>
@@ -20810,6 +22760,9 @@
       <c r="C303" t="s">
         <v>637</v>
       </c>
+      <c r="D303" t="s">
+        <v>3106</v>
+      </c>
       <c r="E303" t="s">
         <v>1038</v>
       </c>
@@ -20848,6 +22801,9 @@
       <c r="C304" t="s">
         <v>637</v>
       </c>
+      <c r="D304" t="s">
+        <v>3107</v>
+      </c>
       <c r="E304" t="s">
         <v>1039</v>
       </c>
@@ -20883,6 +22839,9 @@
       <c r="C305" t="s">
         <v>637</v>
       </c>
+      <c r="D305" t="s">
+        <v>3108</v>
+      </c>
       <c r="E305" t="s">
         <v>1040</v>
       </c>
@@ -20921,6 +22880,9 @@
       <c r="C306" t="s">
         <v>637</v>
       </c>
+      <c r="D306" t="s">
+        <v>3109</v>
+      </c>
       <c r="E306" t="s">
         <v>1041</v>
       </c>
@@ -20959,6 +22921,9 @@
       <c r="C307" t="s">
         <v>637</v>
       </c>
+      <c r="D307" t="s">
+        <v>3110</v>
+      </c>
       <c r="E307" t="s">
         <v>1038</v>
       </c>
@@ -20997,6 +22962,9 @@
       <c r="C308" t="s">
         <v>637</v>
       </c>
+      <c r="D308" t="s">
+        <v>3111</v>
+      </c>
       <c r="E308" t="s">
         <v>1042</v>
       </c>
@@ -21032,6 +23000,9 @@
       <c r="C309" t="s">
         <v>637</v>
       </c>
+      <c r="D309" t="s">
+        <v>3112</v>
+      </c>
       <c r="E309" t="s">
         <v>1043</v>
       </c>
@@ -21070,6 +23041,9 @@
       <c r="C310" t="s">
         <v>2126</v>
       </c>
+      <c r="D310" t="s">
+        <v>3113</v>
+      </c>
       <c r="E310" t="s">
         <v>1044</v>
       </c>
@@ -21146,6 +23120,9 @@
       <c r="C312" t="s">
         <v>637</v>
       </c>
+      <c r="D312" t="s">
+        <v>3114</v>
+      </c>
       <c r="E312" t="s">
         <v>1046</v>
       </c>
@@ -21219,6 +23196,9 @@
       <c r="C314" t="s">
         <v>637</v>
       </c>
+      <c r="D314" t="s">
+        <v>3115</v>
+      </c>
       <c r="E314" t="s">
         <v>1048</v>
       </c>
@@ -21257,6 +23237,9 @@
       <c r="C315" t="s">
         <v>637</v>
       </c>
+      <c r="D315" t="s">
+        <v>3097</v>
+      </c>
       <c r="E315" t="s">
         <v>1028</v>
       </c>
@@ -21295,6 +23278,9 @@
       <c r="C316" t="s">
         <v>641</v>
       </c>
+      <c r="D316" t="s">
+        <v>3116</v>
+      </c>
       <c r="E316" t="s">
         <v>1049</v>
       </c>
@@ -21333,6 +23319,9 @@
       <c r="C317" t="s">
         <v>637</v>
       </c>
+      <c r="D317">
+        <v>82996287217</v>
+      </c>
       <c r="E317" t="s">
         <v>1050</v>
       </c>
@@ -21368,6 +23357,9 @@
       <c r="C318" t="s">
         <v>637</v>
       </c>
+      <c r="D318">
+        <v>82996287217</v>
+      </c>
       <c r="E318" t="s">
         <v>1050</v>
       </c>
@@ -21406,6 +23398,9 @@
       <c r="C319" t="s">
         <v>637</v>
       </c>
+      <c r="D319">
+        <v>82981518167</v>
+      </c>
       <c r="E319" t="s">
         <v>1051</v>
       </c>
@@ -21444,6 +23439,9 @@
       <c r="C320" t="s">
         <v>2128</v>
       </c>
+      <c r="D320">
+        <v>82982039564</v>
+      </c>
       <c r="E320" t="s">
         <v>1052</v>
       </c>
@@ -21482,6 +23480,9 @@
       <c r="C321" t="s">
         <v>2129</v>
       </c>
+      <c r="D321" t="s">
+        <v>3117</v>
+      </c>
       <c r="E321" t="s">
         <v>1053</v>
       </c>
@@ -21520,6 +23521,9 @@
       <c r="C322" t="s">
         <v>637</v>
       </c>
+      <c r="D322" t="s">
+        <v>3118</v>
+      </c>
       <c r="E322" t="s">
         <v>1054</v>
       </c>
@@ -21634,6 +23638,9 @@
       <c r="C325" t="s">
         <v>2131</v>
       </c>
+      <c r="D325" t="s">
+        <v>748</v>
+      </c>
       <c r="E325" t="s">
         <v>1057</v>
       </c>
@@ -21672,6 +23679,9 @@
       <c r="C326" t="s">
         <v>637</v>
       </c>
+      <c r="D326" t="s">
+        <v>3119</v>
+      </c>
       <c r="E326" t="s">
         <v>1058</v>
       </c>
@@ -21707,6 +23717,9 @@
       <c r="C327" t="s">
         <v>637</v>
       </c>
+      <c r="D327" t="s">
+        <v>3120</v>
+      </c>
       <c r="E327" t="s">
         <v>1059</v>
       </c>
@@ -21745,6 +23758,9 @@
       <c r="C328" t="s">
         <v>637</v>
       </c>
+      <c r="D328" t="s">
+        <v>3121</v>
+      </c>
       <c r="E328" t="s">
         <v>1060</v>
       </c>
@@ -21780,6 +23796,9 @@
       <c r="C329" t="s">
         <v>637</v>
       </c>
+      <c r="D329" t="s">
+        <v>3122</v>
+      </c>
       <c r="E329" t="s">
         <v>1061</v>
       </c>
@@ -21818,6 +23837,9 @@
       <c r="C330" t="s">
         <v>641</v>
       </c>
+      <c r="D330" t="s">
+        <v>3123</v>
+      </c>
       <c r="E330" t="s">
         <v>1062</v>
       </c>
@@ -21856,6 +23878,9 @@
       <c r="C331" t="s">
         <v>637</v>
       </c>
+      <c r="D331" t="s">
+        <v>3124</v>
+      </c>
       <c r="E331" t="s">
         <v>1063</v>
       </c>
@@ -21891,6 +23916,9 @@
       <c r="C332" t="s">
         <v>637</v>
       </c>
+      <c r="D332" t="s">
+        <v>3125</v>
+      </c>
       <c r="E332" t="s">
         <v>1064</v>
       </c>
@@ -21926,6 +23954,9 @@
       <c r="C333" t="s">
         <v>2132</v>
       </c>
+      <c r="D333" t="s">
+        <v>3126</v>
+      </c>
       <c r="E333" t="s">
         <v>1065</v>
       </c>
@@ -21964,6 +23995,9 @@
       <c r="C334" t="s">
         <v>637</v>
       </c>
+      <c r="D334" t="s">
+        <v>3127</v>
+      </c>
       <c r="E334" t="s">
         <v>1066</v>
       </c>
@@ -22002,6 +24036,9 @@
       <c r="C335" t="s">
         <v>637</v>
       </c>
+      <c r="D335" t="s">
+        <v>3128</v>
+      </c>
       <c r="E335" t="s">
         <v>1067</v>
       </c>
@@ -22040,6 +24077,9 @@
       <c r="C336" t="s">
         <v>637</v>
       </c>
+      <c r="D336" t="s">
+        <v>3129</v>
+      </c>
       <c r="E336" t="s">
         <v>1068</v>
       </c>
@@ -22078,6 +24118,9 @@
       <c r="C337" t="s">
         <v>2133</v>
       </c>
+      <c r="D337" t="s">
+        <v>3130</v>
+      </c>
       <c r="E337" t="s">
         <v>1069</v>
       </c>
@@ -22116,6 +24159,9 @@
       <c r="C338" t="s">
         <v>637</v>
       </c>
+      <c r="D338" t="s">
+        <v>3131</v>
+      </c>
       <c r="E338" t="s">
         <v>1070</v>
       </c>
@@ -22151,6 +24197,9 @@
       <c r="C339" t="s">
         <v>641</v>
       </c>
+      <c r="D339" t="s">
+        <v>3132</v>
+      </c>
       <c r="E339" t="s">
         <v>1071</v>
       </c>
@@ -22189,6 +24238,9 @@
       <c r="C340" t="s">
         <v>637</v>
       </c>
+      <c r="D340" t="s">
+        <v>3133</v>
+      </c>
       <c r="E340" t="s">
         <v>1072</v>
       </c>
@@ -22227,6 +24279,9 @@
       <c r="C341" t="s">
         <v>637</v>
       </c>
+      <c r="D341" t="s">
+        <v>3134</v>
+      </c>
       <c r="E341" t="s">
         <v>1073</v>
       </c>
@@ -22265,6 +24320,9 @@
       <c r="C342" t="s">
         <v>637</v>
       </c>
+      <c r="D342" t="s">
+        <v>3135</v>
+      </c>
       <c r="E342" t="s">
         <v>1074</v>
       </c>
@@ -22303,6 +24361,9 @@
       <c r="C343" t="s">
         <v>637</v>
       </c>
+      <c r="D343" t="s">
+        <v>3136</v>
+      </c>
       <c r="E343" t="s">
         <v>1075</v>
       </c>
@@ -22341,6 +24402,9 @@
       <c r="C344" t="s">
         <v>637</v>
       </c>
+      <c r="D344" t="s">
+        <v>3137</v>
+      </c>
       <c r="E344" t="s">
         <v>1076</v>
       </c>
@@ -22379,6 +24443,9 @@
       <c r="C345" t="s">
         <v>637</v>
       </c>
+      <c r="D345" t="s">
+        <v>3138</v>
+      </c>
       <c r="E345" t="s">
         <v>1077</v>
       </c>
@@ -22417,6 +24484,9 @@
       <c r="C346" t="s">
         <v>637</v>
       </c>
+      <c r="D346" t="s">
+        <v>3139</v>
+      </c>
       <c r="E346" t="s">
         <v>1078</v>
       </c>
@@ -22490,6 +24560,9 @@
       <c r="C348" t="s">
         <v>637</v>
       </c>
+      <c r="D348" t="s">
+        <v>3123</v>
+      </c>
       <c r="E348" t="s">
         <v>1062</v>
       </c>
@@ -22525,6 +24598,9 @@
       <c r="C349" t="s">
         <v>637</v>
       </c>
+      <c r="D349" t="s">
+        <v>3140</v>
+      </c>
       <c r="E349" t="s">
         <v>1079</v>
       </c>
@@ -22560,6 +24636,9 @@
       <c r="C350" t="s">
         <v>637</v>
       </c>
+      <c r="D350" t="s">
+        <v>3141</v>
+      </c>
       <c r="E350" t="s">
         <v>1080</v>
       </c>
@@ -22598,6 +24677,9 @@
       <c r="C351" t="s">
         <v>2135</v>
       </c>
+      <c r="D351" t="s">
+        <v>3142</v>
+      </c>
       <c r="E351" t="s">
         <v>1081</v>
       </c>
@@ -22636,6 +24718,9 @@
       <c r="C352" t="s">
         <v>2136</v>
       </c>
+      <c r="D352" t="s">
+        <v>3143</v>
+      </c>
       <c r="E352" t="s">
         <v>1082</v>
       </c>
@@ -22674,6 +24759,9 @@
       <c r="C353" t="s">
         <v>637</v>
       </c>
+      <c r="D353" t="s">
+        <v>3144</v>
+      </c>
       <c r="E353" t="s">
         <v>1083</v>
       </c>
@@ -22712,6 +24800,9 @@
       <c r="C354" t="s">
         <v>637</v>
       </c>
+      <c r="D354" t="s">
+        <v>3145</v>
+      </c>
       <c r="E354" t="s">
         <v>1084</v>
       </c>
@@ -22750,6 +24841,9 @@
       <c r="C355" t="s">
         <v>657</v>
       </c>
+      <c r="D355">
+        <v>82991265592</v>
+      </c>
       <c r="E355" t="s">
         <v>1085</v>
       </c>
@@ -22788,6 +24882,9 @@
       <c r="C356" t="s">
         <v>2137</v>
       </c>
+      <c r="D356" t="s">
+        <v>3146</v>
+      </c>
       <c r="E356" t="s">
         <v>1086</v>
       </c>
@@ -22823,6 +24920,9 @@
       <c r="C357" t="s">
         <v>2138</v>
       </c>
+      <c r="D357">
+        <v>82999910777</v>
+      </c>
       <c r="E357" t="s">
         <v>1087</v>
       </c>
@@ -22861,6 +24961,9 @@
       <c r="C358" t="s">
         <v>637</v>
       </c>
+      <c r="D358" t="s">
+        <v>3147</v>
+      </c>
       <c r="E358" t="s">
         <v>1088</v>
       </c>
@@ -22934,6 +25037,9 @@
       <c r="C360" t="s">
         <v>637</v>
       </c>
+      <c r="D360" t="s">
+        <v>3148</v>
+      </c>
       <c r="E360" t="s">
         <v>1090</v>
       </c>
@@ -22969,6 +25075,9 @@
       <c r="C361" t="s">
         <v>637</v>
       </c>
+      <c r="D361">
+        <v>999933325</v>
+      </c>
       <c r="E361" t="s">
         <v>1091</v>
       </c>
@@ -23007,6 +25116,9 @@
       <c r="C362" t="s">
         <v>2140</v>
       </c>
+      <c r="D362">
+        <v>82988092894</v>
+      </c>
       <c r="E362" t="s">
         <v>1092</v>
       </c>
@@ -23045,6 +25157,9 @@
       <c r="C363" t="s">
         <v>637</v>
       </c>
+      <c r="D363" t="s">
+        <v>3149</v>
+      </c>
       <c r="E363" t="s">
         <v>1093</v>
       </c>
@@ -23083,6 +25198,9 @@
       <c r="C364" t="s">
         <v>2141</v>
       </c>
+      <c r="D364">
+        <v>82981047914</v>
+      </c>
       <c r="E364" t="s">
         <v>1094</v>
       </c>
@@ -23121,6 +25239,9 @@
       <c r="C365" t="s">
         <v>637</v>
       </c>
+      <c r="D365" t="s">
+        <v>3150</v>
+      </c>
       <c r="E365" t="s">
         <v>1095</v>
       </c>
@@ -23159,6 +25280,9 @@
       <c r="C366" t="s">
         <v>637</v>
       </c>
+      <c r="D366" t="s">
+        <v>3151</v>
+      </c>
       <c r="E366" t="s">
         <v>1096</v>
       </c>
@@ -23197,6 +25321,9 @@
       <c r="C367" t="s">
         <v>637</v>
       </c>
+      <c r="D367" t="s">
+        <v>3152</v>
+      </c>
       <c r="E367" t="s">
         <v>1097</v>
       </c>
@@ -23232,6 +25359,9 @@
       <c r="C368" t="s">
         <v>637</v>
       </c>
+      <c r="D368" t="s">
+        <v>3153</v>
+      </c>
       <c r="E368" t="s">
         <v>1098</v>
       </c>
@@ -23270,6 +25400,9 @@
       <c r="C369" t="s">
         <v>637</v>
       </c>
+      <c r="D369" t="s">
+        <v>3154</v>
+      </c>
       <c r="E369" t="s">
         <v>1099</v>
       </c>
@@ -23305,6 +25438,9 @@
       <c r="C370" t="s">
         <v>637</v>
       </c>
+      <c r="D370" t="s">
+        <v>3155</v>
+      </c>
       <c r="E370" t="s">
         <v>1100</v>
       </c>
@@ -23343,6 +25479,9 @@
       <c r="C371" t="s">
         <v>637</v>
       </c>
+      <c r="D371" t="s">
+        <v>3156</v>
+      </c>
       <c r="E371" t="s">
         <v>1101</v>
       </c>
@@ -23378,6 +25517,9 @@
       <c r="C372" t="s">
         <v>637</v>
       </c>
+      <c r="D372" t="s">
+        <v>3157</v>
+      </c>
       <c r="E372" t="s">
         <v>1102</v>
       </c>
@@ -23416,6 +25558,9 @@
       <c r="C373" t="s">
         <v>2142</v>
       </c>
+      <c r="D373" t="s">
+        <v>3158</v>
+      </c>
       <c r="E373" t="s">
         <v>1103</v>
       </c>
@@ -23454,6 +25599,9 @@
       <c r="C374" t="s">
         <v>637</v>
       </c>
+      <c r="D374" t="s">
+        <v>3159</v>
+      </c>
       <c r="E374" t="s">
         <v>1104</v>
       </c>
@@ -23489,6 +25637,9 @@
       <c r="C375" t="s">
         <v>637</v>
       </c>
+      <c r="D375" t="s">
+        <v>3160</v>
+      </c>
       <c r="E375" t="s">
         <v>1105</v>
       </c>
@@ -23527,6 +25678,9 @@
       <c r="C376" t="s">
         <v>637</v>
       </c>
+      <c r="D376" t="s">
+        <v>3161</v>
+      </c>
       <c r="E376" t="s">
         <v>1106</v>
       </c>
@@ -23562,6 +25716,9 @@
       <c r="C377" t="s">
         <v>637</v>
       </c>
+      <c r="D377" t="s">
+        <v>3162</v>
+      </c>
       <c r="E377" t="s">
         <v>1107</v>
       </c>
@@ -23600,6 +25757,9 @@
       <c r="C378" t="s">
         <v>637</v>
       </c>
+      <c r="D378" t="s">
+        <v>3163</v>
+      </c>
       <c r="E378" t="s">
         <v>1108</v>
       </c>
@@ -23635,6 +25795,9 @@
       <c r="C379" t="s">
         <v>637</v>
       </c>
+      <c r="D379" t="s">
+        <v>3164</v>
+      </c>
       <c r="E379" t="s">
         <v>1109</v>
       </c>
@@ -23670,6 +25833,9 @@
       <c r="C380" t="s">
         <v>637</v>
       </c>
+      <c r="D380" t="s">
+        <v>3165</v>
+      </c>
       <c r="E380" t="s">
         <v>1110</v>
       </c>
@@ -23708,6 +25874,9 @@
       <c r="C381" t="s">
         <v>2143</v>
       </c>
+      <c r="D381" t="s">
+        <v>748</v>
+      </c>
       <c r="E381" t="s">
         <v>1111</v>
       </c>
@@ -23746,6 +25915,9 @@
       <c r="C382" t="s">
         <v>2144</v>
       </c>
+      <c r="D382" t="s">
+        <v>3166</v>
+      </c>
       <c r="E382" t="s">
         <v>1112</v>
       </c>
@@ -23784,6 +25956,9 @@
       <c r="C383" t="s">
         <v>637</v>
       </c>
+      <c r="D383" t="s">
+        <v>3167</v>
+      </c>
       <c r="E383" t="s">
         <v>1113</v>
       </c>
@@ -23822,6 +25997,9 @@
       <c r="C384" t="s">
         <v>637</v>
       </c>
+      <c r="D384" t="s">
+        <v>3168</v>
+      </c>
       <c r="E384" t="s">
         <v>1114</v>
       </c>
@@ -23860,6 +26038,9 @@
       <c r="C385" t="s">
         <v>637</v>
       </c>
+      <c r="D385" t="s">
+        <v>3169</v>
+      </c>
       <c r="E385" t="s">
         <v>1115</v>
       </c>
@@ -23895,6 +26076,9 @@
       <c r="C386" t="s">
         <v>637</v>
       </c>
+      <c r="D386" t="s">
+        <v>3170</v>
+      </c>
       <c r="E386" t="s">
         <v>1116</v>
       </c>
@@ -23968,6 +26152,9 @@
       <c r="C388" t="s">
         <v>637</v>
       </c>
+      <c r="D388" t="s">
+        <v>3171</v>
+      </c>
       <c r="E388" t="s">
         <v>1118</v>
       </c>
@@ -24006,6 +26193,9 @@
       <c r="C389" t="s">
         <v>2146</v>
       </c>
+      <c r="D389" t="s">
+        <v>3172</v>
+      </c>
       <c r="E389" t="s">
         <v>1119</v>
       </c>
@@ -24041,6 +26231,9 @@
       <c r="C390" t="s">
         <v>637</v>
       </c>
+      <c r="D390" t="s">
+        <v>3173</v>
+      </c>
       <c r="E390" t="s">
         <v>1120</v>
       </c>
@@ -24079,6 +26272,9 @@
       <c r="C391" t="s">
         <v>637</v>
       </c>
+      <c r="D391" t="s">
+        <v>3174</v>
+      </c>
       <c r="E391" t="s">
         <v>1121</v>
       </c>
@@ -24117,6 +26313,9 @@
       <c r="C392" t="s">
         <v>637</v>
       </c>
+      <c r="D392" t="s">
+        <v>3175</v>
+      </c>
       <c r="E392" t="s">
         <v>1122</v>
       </c>
@@ -24152,6 +26351,9 @@
       <c r="C393" t="s">
         <v>637</v>
       </c>
+      <c r="D393" t="s">
+        <v>3176</v>
+      </c>
       <c r="E393" t="s">
         <v>1123</v>
       </c>
@@ -24190,6 +26392,9 @@
       <c r="C394" t="s">
         <v>637</v>
       </c>
+      <c r="D394" t="s">
+        <v>748</v>
+      </c>
       <c r="E394" t="s">
         <v>1124</v>
       </c>
@@ -24228,6 +26433,9 @@
       <c r="C395" t="s">
         <v>637</v>
       </c>
+      <c r="D395" t="s">
+        <v>3177</v>
+      </c>
       <c r="E395" t="s">
         <v>1125</v>
       </c>
@@ -24263,6 +26471,9 @@
       <c r="C396" t="s">
         <v>637</v>
       </c>
+      <c r="D396" t="s">
+        <v>3178</v>
+      </c>
       <c r="E396" t="s">
         <v>1126</v>
       </c>
@@ -24301,6 +26512,9 @@
       <c r="C397" t="s">
         <v>637</v>
       </c>
+      <c r="D397" t="s">
+        <v>3179</v>
+      </c>
       <c r="E397" t="s">
         <v>1127</v>
       </c>
@@ -24339,6 +26553,9 @@
       <c r="C398" t="s">
         <v>637</v>
       </c>
+      <c r="D398" t="s">
+        <v>3180</v>
+      </c>
       <c r="E398" t="s">
         <v>1128</v>
       </c>
@@ -24377,6 +26594,9 @@
       <c r="C399" t="s">
         <v>2120</v>
       </c>
+      <c r="D399" t="s">
+        <v>3181</v>
+      </c>
       <c r="E399" t="s">
         <v>1129</v>
       </c>
@@ -24453,6 +26673,9 @@
       <c r="C401" t="s">
         <v>637</v>
       </c>
+      <c r="D401" t="s">
+        <v>3182</v>
+      </c>
       <c r="E401" t="s">
         <v>1131</v>
       </c>
@@ -24491,6 +26714,9 @@
       <c r="C402" t="s">
         <v>637</v>
       </c>
+      <c r="D402" t="s">
+        <v>3183</v>
+      </c>
       <c r="E402" t="s">
         <v>1132</v>
       </c>
@@ -24529,6 +26755,9 @@
       <c r="C403" t="s">
         <v>637</v>
       </c>
+      <c r="D403" t="s">
+        <v>3184</v>
+      </c>
       <c r="E403" t="s">
         <v>1133</v>
       </c>
@@ -24605,6 +26834,9 @@
       <c r="C405" t="s">
         <v>637</v>
       </c>
+      <c r="D405" t="s">
+        <v>3185</v>
+      </c>
       <c r="E405" t="s">
         <v>1135</v>
       </c>
@@ -24640,6 +26872,9 @@
       <c r="C406" t="s">
         <v>2148</v>
       </c>
+      <c r="D406" t="s">
+        <v>3186</v>
+      </c>
       <c r="E406" t="s">
         <v>1136</v>
       </c>
@@ -24678,6 +26913,9 @@
       <c r="C407" t="s">
         <v>637</v>
       </c>
+      <c r="D407" t="s">
+        <v>3187</v>
+      </c>
       <c r="E407" t="s">
         <v>1137</v>
       </c>
@@ -24713,6 +26951,9 @@
       <c r="C408" t="s">
         <v>637</v>
       </c>
+      <c r="D408" t="s">
+        <v>3188</v>
+      </c>
       <c r="E408" t="s">
         <v>1138</v>
       </c>
@@ -24751,6 +26992,9 @@
       <c r="C409" t="s">
         <v>641</v>
       </c>
+      <c r="D409" t="s">
+        <v>748</v>
+      </c>
       <c r="E409" t="s">
         <v>1139</v>
       </c>
@@ -24789,6 +27033,9 @@
       <c r="C410" t="s">
         <v>637</v>
       </c>
+      <c r="D410" t="s">
+        <v>3189</v>
+      </c>
       <c r="E410" t="s">
         <v>1140</v>
       </c>
@@ -24827,6 +27074,9 @@
       <c r="C411" t="s">
         <v>2149</v>
       </c>
+      <c r="D411" t="s">
+        <v>3190</v>
+      </c>
       <c r="E411" t="s">
         <v>1141</v>
       </c>
@@ -24865,6 +27115,9 @@
       <c r="C412" t="s">
         <v>637</v>
       </c>
+      <c r="D412" t="s">
+        <v>3191</v>
+      </c>
       <c r="E412" t="s">
         <v>1142</v>
       </c>
@@ -24900,6 +27153,9 @@
       <c r="C413" t="s">
         <v>641</v>
       </c>
+      <c r="D413" t="s">
+        <v>3192</v>
+      </c>
       <c r="E413" t="s">
         <v>1143</v>
       </c>
@@ -24935,6 +27191,9 @@
       <c r="C414" t="s">
         <v>637</v>
       </c>
+      <c r="D414" t="s">
+        <v>3193</v>
+      </c>
       <c r="E414" t="s">
         <v>1144</v>
       </c>
@@ -24973,6 +27232,9 @@
       <c r="C415" t="s">
         <v>2116</v>
       </c>
+      <c r="D415" t="s">
+        <v>3194</v>
+      </c>
       <c r="E415" t="s">
         <v>1145</v>
       </c>
@@ -25011,6 +27273,9 @@
       <c r="C416" t="s">
         <v>637</v>
       </c>
+      <c r="D416" t="s">
+        <v>3195</v>
+      </c>
       <c r="E416" t="s">
         <v>1146</v>
       </c>
@@ -25049,6 +27314,9 @@
       <c r="C417" t="s">
         <v>637</v>
       </c>
+      <c r="D417" t="s">
+        <v>3168</v>
+      </c>
       <c r="E417" t="s">
         <v>1114</v>
       </c>
@@ -25087,6 +27355,9 @@
       <c r="C418" t="s">
         <v>637</v>
       </c>
+      <c r="D418" t="s">
+        <v>3196</v>
+      </c>
       <c r="E418" t="s">
         <v>1147</v>
       </c>
@@ -25122,6 +27393,9 @@
       <c r="C419" t="s">
         <v>637</v>
       </c>
+      <c r="D419" t="s">
+        <v>3197</v>
+      </c>
       <c r="E419" t="s">
         <v>1148</v>
       </c>
@@ -25157,6 +27431,9 @@
       <c r="C420" t="s">
         <v>2150</v>
       </c>
+      <c r="D420" t="s">
+        <v>3198</v>
+      </c>
       <c r="E420" t="s">
         <v>1149</v>
       </c>
@@ -25195,6 +27472,9 @@
       <c r="C421" t="s">
         <v>637</v>
       </c>
+      <c r="D421" t="s">
+        <v>3199</v>
+      </c>
       <c r="E421" t="s">
         <v>1150</v>
       </c>
@@ -25230,6 +27510,9 @@
       <c r="C422" t="s">
         <v>2122</v>
       </c>
+      <c r="D422" t="s">
+        <v>3200</v>
+      </c>
       <c r="E422" t="s">
         <v>1151</v>
       </c>
@@ -25268,6 +27551,9 @@
       <c r="C423" t="s">
         <v>637</v>
       </c>
+      <c r="D423" t="s">
+        <v>3201</v>
+      </c>
       <c r="E423" t="s">
         <v>1152</v>
       </c>
@@ -25306,6 +27592,9 @@
       <c r="C424" t="s">
         <v>2151</v>
       </c>
+      <c r="D424" t="s">
+        <v>3202</v>
+      </c>
       <c r="E424" t="s">
         <v>1153</v>
       </c>
@@ -25344,6 +27633,9 @@
       <c r="C425" t="s">
         <v>637</v>
       </c>
+      <c r="D425" t="s">
+        <v>3203</v>
+      </c>
       <c r="E425" t="s">
         <v>1154</v>
       </c>
@@ -25382,6 +27674,9 @@
       <c r="C426" t="s">
         <v>637</v>
       </c>
+      <c r="D426" t="s">
+        <v>3204</v>
+      </c>
       <c r="E426" t="s">
         <v>1155</v>
       </c>
@@ -25420,6 +27715,9 @@
       <c r="C427" t="s">
         <v>641</v>
       </c>
+      <c r="D427" t="s">
+        <v>3205</v>
+      </c>
       <c r="E427" t="s">
         <v>1156</v>
       </c>
@@ -25458,6 +27756,9 @@
       <c r="C428" t="s">
         <v>2152</v>
       </c>
+      <c r="D428" t="s">
+        <v>3206</v>
+      </c>
       <c r="E428" t="s">
         <v>1157</v>
       </c>
@@ -25496,6 +27797,9 @@
       <c r="C429" t="s">
         <v>637</v>
       </c>
+      <c r="D429" t="s">
+        <v>3207</v>
+      </c>
       <c r="E429" t="s">
         <v>1158</v>
       </c>
@@ -25569,6 +27873,9 @@
       <c r="C431" t="s">
         <v>637</v>
       </c>
+      <c r="D431" t="s">
+        <v>3208</v>
+      </c>
       <c r="E431" t="s">
         <v>1160</v>
       </c>
@@ -25607,6 +27914,9 @@
       <c r="C432" t="s">
         <v>2153</v>
       </c>
+      <c r="D432" t="s">
+        <v>737</v>
+      </c>
       <c r="E432" t="s">
         <v>1161</v>
       </c>
@@ -25642,6 +27952,9 @@
       <c r="C433" t="s">
         <v>641</v>
       </c>
+      <c r="D433" t="s">
+        <v>3209</v>
+      </c>
       <c r="E433" t="s">
         <v>1162</v>
       </c>
@@ -25680,6 +27993,9 @@
       <c r="C434" t="s">
         <v>637</v>
       </c>
+      <c r="D434" t="s">
+        <v>3210</v>
+      </c>
       <c r="E434" t="s">
         <v>1163</v>
       </c>
@@ -25715,6 +28031,9 @@
       <c r="C435" t="s">
         <v>637</v>
       </c>
+      <c r="D435" t="s">
+        <v>3211</v>
+      </c>
       <c r="E435" t="s">
         <v>1164</v>
       </c>
@@ -25750,6 +28069,9 @@
       <c r="C436" t="s">
         <v>2154</v>
       </c>
+      <c r="D436" t="s">
+        <v>748</v>
+      </c>
       <c r="E436" t="s">
         <v>1165</v>
       </c>
@@ -25788,6 +28110,9 @@
       <c r="C437" t="s">
         <v>2155</v>
       </c>
+      <c r="D437" t="s">
+        <v>3212</v>
+      </c>
       <c r="E437" t="s">
         <v>1166</v>
       </c>
@@ -25823,6 +28148,9 @@
       <c r="C438" t="s">
         <v>637</v>
       </c>
+      <c r="D438" t="s">
+        <v>3213</v>
+      </c>
       <c r="E438" t="s">
         <v>1167</v>
       </c>
@@ -25858,6 +28186,9 @@
       <c r="C439" t="s">
         <v>2156</v>
       </c>
+      <c r="D439" t="s">
+        <v>748</v>
+      </c>
       <c r="E439" t="s">
         <v>1168</v>
       </c>
@@ -25896,6 +28227,9 @@
       <c r="C440" t="s">
         <v>2157</v>
       </c>
+      <c r="D440" t="s">
+        <v>3214</v>
+      </c>
       <c r="E440" t="s">
         <v>1169</v>
       </c>
@@ -25934,6 +28268,9 @@
       <c r="C441" t="s">
         <v>2158</v>
       </c>
+      <c r="D441" t="s">
+        <v>3215</v>
+      </c>
       <c r="E441" t="s">
         <v>1170</v>
       </c>
@@ -25969,6 +28306,9 @@
       <c r="C442" t="s">
         <v>637</v>
       </c>
+      <c r="D442" t="s">
+        <v>3216</v>
+      </c>
       <c r="E442" t="s">
         <v>1171</v>
       </c>
@@ -26007,6 +28347,9 @@
       <c r="C443" t="s">
         <v>2159</v>
       </c>
+      <c r="D443" t="s">
+        <v>3217</v>
+      </c>
       <c r="E443" t="s">
         <v>1172</v>
       </c>
@@ -26042,6 +28385,9 @@
       <c r="C444" t="s">
         <v>637</v>
       </c>
+      <c r="D444" t="s">
+        <v>3218</v>
+      </c>
       <c r="E444" t="s">
         <v>1173</v>
       </c>
@@ -26077,6 +28423,9 @@
       <c r="C445" t="s">
         <v>637</v>
       </c>
+      <c r="D445" t="s">
+        <v>3219</v>
+      </c>
       <c r="E445" t="s">
         <v>1174</v>
       </c>
@@ -26115,6 +28464,9 @@
       <c r="C446" t="s">
         <v>637</v>
       </c>
+      <c r="D446" t="s">
+        <v>3220</v>
+      </c>
       <c r="E446" t="s">
         <v>1175</v>
       </c>
@@ -26153,6 +28505,9 @@
       <c r="C447" t="s">
         <v>637</v>
       </c>
+      <c r="D447" t="s">
+        <v>3221</v>
+      </c>
       <c r="E447" t="s">
         <v>1176</v>
       </c>
@@ -26191,6 +28546,9 @@
       <c r="C448" t="s">
         <v>641</v>
       </c>
+      <c r="D448" t="s">
+        <v>3222</v>
+      </c>
       <c r="E448" t="s">
         <v>1177</v>
       </c>
@@ -26229,6 +28587,9 @@
       <c r="C449" t="s">
         <v>637</v>
       </c>
+      <c r="D449" t="s">
+        <v>3223</v>
+      </c>
       <c r="E449" t="s">
         <v>1178</v>
       </c>
@@ -26267,6 +28628,9 @@
       <c r="C450" t="s">
         <v>637</v>
       </c>
+      <c r="D450" t="s">
+        <v>3219</v>
+      </c>
       <c r="E450" t="s">
         <v>1179</v>
       </c>
@@ -26305,6 +28669,9 @@
       <c r="C451" t="s">
         <v>637</v>
       </c>
+      <c r="D451" t="s">
+        <v>3224</v>
+      </c>
       <c r="E451" t="s">
         <v>1180</v>
       </c>
@@ -26343,6 +28710,9 @@
       <c r="C452" t="s">
         <v>637</v>
       </c>
+      <c r="D452" t="s">
+        <v>3225</v>
+      </c>
       <c r="E452" t="s">
         <v>1181</v>
       </c>
@@ -26378,6 +28748,9 @@
       <c r="C453" t="s">
         <v>2160</v>
       </c>
+      <c r="D453" t="s">
+        <v>748</v>
+      </c>
       <c r="E453" t="s">
         <v>1182</v>
       </c>
@@ -26416,6 +28789,9 @@
       <c r="C454" t="s">
         <v>637</v>
       </c>
+      <c r="D454" t="s">
+        <v>3062</v>
+      </c>
       <c r="E454" t="s">
         <v>1183</v>
       </c>
@@ -26451,6 +28827,9 @@
       <c r="C455" t="s">
         <v>680</v>
       </c>
+      <c r="D455" t="s">
+        <v>3226</v>
+      </c>
       <c r="E455" t="s">
         <v>1184</v>
       </c>
@@ -26486,6 +28865,9 @@
       <c r="C456" t="s">
         <v>637</v>
       </c>
+      <c r="D456" t="s">
+        <v>3227</v>
+      </c>
       <c r="E456" t="s">
         <v>1185</v>
       </c>
@@ -26524,6 +28906,9 @@
       <c r="C457" t="s">
         <v>637</v>
       </c>
+      <c r="D457" t="s">
+        <v>3228</v>
+      </c>
       <c r="E457" t="s">
         <v>1186</v>
       </c>
@@ -26562,6 +28947,9 @@
       <c r="C458" t="s">
         <v>637</v>
       </c>
+      <c r="D458" t="s">
+        <v>3229</v>
+      </c>
       <c r="E458" t="s">
         <v>1187</v>
       </c>
@@ -26600,6 +28988,9 @@
       <c r="C459" t="s">
         <v>637</v>
       </c>
+      <c r="D459" t="s">
+        <v>3230</v>
+      </c>
       <c r="E459" t="s">
         <v>1188</v>
       </c>
@@ -26635,6 +29026,9 @@
       <c r="C460" t="s">
         <v>637</v>
       </c>
+      <c r="D460" t="s">
+        <v>3231</v>
+      </c>
       <c r="E460" t="s">
         <v>1189</v>
       </c>
@@ -26670,6 +29064,9 @@
       <c r="C461" t="s">
         <v>637</v>
       </c>
+      <c r="D461" t="s">
+        <v>3232</v>
+      </c>
       <c r="E461" t="s">
         <v>1190</v>
       </c>
@@ -26708,6 +29105,9 @@
       <c r="C462" t="s">
         <v>641</v>
       </c>
+      <c r="D462" t="s">
+        <v>748</v>
+      </c>
       <c r="E462" t="s">
         <v>1191</v>
       </c>
@@ -26743,6 +29143,9 @@
       <c r="C463" t="s">
         <v>637</v>
       </c>
+      <c r="D463" t="s">
+        <v>3233</v>
+      </c>
       <c r="E463" t="s">
         <v>1192</v>
       </c>
@@ -26781,6 +29184,9 @@
       <c r="C464" t="s">
         <v>637</v>
       </c>
+      <c r="D464" t="s">
+        <v>3234</v>
+      </c>
       <c r="E464" t="s">
         <v>1193</v>
       </c>
@@ -26816,6 +29222,9 @@
       <c r="C465" t="s">
         <v>637</v>
       </c>
+      <c r="D465" t="s">
+        <v>3235</v>
+      </c>
       <c r="E465" t="s">
         <v>1194</v>
       </c>
@@ -26851,6 +29260,9 @@
       <c r="C466" t="s">
         <v>637</v>
       </c>
+      <c r="D466" t="s">
+        <v>3236</v>
+      </c>
       <c r="E466" t="s">
         <v>1195</v>
       </c>
@@ -26886,6 +29298,9 @@
       <c r="C467" t="s">
         <v>637</v>
       </c>
+      <c r="D467" t="s">
+        <v>3237</v>
+      </c>
       <c r="E467" t="s">
         <v>1196</v>
       </c>
@@ -26924,6 +29339,9 @@
       <c r="C468" t="s">
         <v>637</v>
       </c>
+      <c r="D468" t="s">
+        <v>3238</v>
+      </c>
       <c r="E468" t="s">
         <v>1196</v>
       </c>
@@ -26962,6 +29380,9 @@
       <c r="C469" t="s">
         <v>637</v>
       </c>
+      <c r="D469" t="s">
+        <v>3239</v>
+      </c>
       <c r="E469" t="s">
         <v>1191</v>
       </c>
@@ -26997,6 +29418,9 @@
       <c r="C470" t="s">
         <v>637</v>
       </c>
+      <c r="D470" t="s">
+        <v>3240</v>
+      </c>
       <c r="E470" t="s">
         <v>1197</v>
       </c>
@@ -27073,6 +29497,9 @@
       <c r="C472" t="s">
         <v>637</v>
       </c>
+      <c r="D472" t="s">
+        <v>3241</v>
+      </c>
       <c r="E472" t="s">
         <v>1199</v>
       </c>
@@ -27108,6 +29535,9 @@
       <c r="C473" t="s">
         <v>637</v>
       </c>
+      <c r="D473" t="s">
+        <v>3242</v>
+      </c>
       <c r="E473" t="s">
         <v>1200</v>
       </c>
@@ -27146,6 +29576,9 @@
       <c r="C474" t="s">
         <v>637</v>
       </c>
+      <c r="D474" t="s">
+        <v>3232</v>
+      </c>
       <c r="E474" t="s">
         <v>1201</v>
       </c>
@@ -27181,6 +29614,9 @@
       <c r="C475" t="s">
         <v>637</v>
       </c>
+      <c r="D475" t="s">
+        <v>3243</v>
+      </c>
       <c r="E475" t="s">
         <v>1202</v>
       </c>
@@ -27219,6 +29655,9 @@
       <c r="C476" t="s">
         <v>637</v>
       </c>
+      <c r="D476" t="s">
+        <v>3244</v>
+      </c>
       <c r="E476" t="s">
         <v>1203</v>
       </c>
@@ -27257,6 +29696,9 @@
       <c r="C477" t="s">
         <v>2161</v>
       </c>
+      <c r="D477" t="s">
+        <v>3245</v>
+      </c>
       <c r="E477" t="s">
         <v>1204</v>
       </c>
@@ -27295,6 +29737,9 @@
       <c r="C478" t="s">
         <v>637</v>
       </c>
+      <c r="D478">
+        <v>82981000000</v>
+      </c>
       <c r="E478" t="s">
         <v>1205</v>
       </c>
@@ -27333,6 +29778,9 @@
       <c r="C479" t="s">
         <v>637</v>
       </c>
+      <c r="D479">
+        <v>82981098018</v>
+      </c>
       <c r="E479" t="s">
         <v>1206</v>
       </c>
@@ -27371,6 +29819,9 @@
       <c r="C480" t="s">
         <v>637</v>
       </c>
+      <c r="D480" t="s">
+        <v>3246</v>
+      </c>
       <c r="E480" t="s">
         <v>1207</v>
       </c>
@@ -27406,6 +29857,9 @@
       <c r="C481" t="s">
         <v>637</v>
       </c>
+      <c r="D481" t="s">
+        <v>3247</v>
+      </c>
       <c r="E481" t="s">
         <v>1208</v>
       </c>
@@ -27444,6 +29898,9 @@
       <c r="C482" t="s">
         <v>637</v>
       </c>
+      <c r="D482" t="s">
+        <v>3248</v>
+      </c>
       <c r="E482" t="s">
         <v>1209</v>
       </c>
@@ -27482,6 +29939,9 @@
       <c r="C483" t="s">
         <v>2162</v>
       </c>
+      <c r="D483" t="s">
+        <v>3249</v>
+      </c>
       <c r="E483" t="s">
         <v>1210</v>
       </c>
@@ -27520,6 +29980,9 @@
       <c r="C484" t="s">
         <v>637</v>
       </c>
+      <c r="D484" t="s">
+        <v>748</v>
+      </c>
       <c r="E484" t="s">
         <v>1211</v>
       </c>
@@ -27590,6 +30053,9 @@
       <c r="C486" t="s">
         <v>637</v>
       </c>
+      <c r="D486" t="s">
+        <v>3250</v>
+      </c>
       <c r="E486" t="s">
         <v>1213</v>
       </c>
@@ -27625,6 +30091,9 @@
       <c r="C487" t="s">
         <v>2163</v>
       </c>
+      <c r="D487" t="s">
+        <v>3251</v>
+      </c>
       <c r="E487" t="s">
         <v>1214</v>
       </c>
@@ -27660,6 +30129,9 @@
       <c r="C488" t="s">
         <v>637</v>
       </c>
+      <c r="D488" t="s">
+        <v>3252</v>
+      </c>
       <c r="E488" t="s">
         <v>1215</v>
       </c>
@@ -27698,6 +30170,9 @@
       <c r="C489" t="s">
         <v>2164</v>
       </c>
+      <c r="D489" t="s">
+        <v>3253</v>
+      </c>
       <c r="E489" t="s">
         <v>1216</v>
       </c>
@@ -27736,6 +30211,9 @@
       <c r="C490" t="s">
         <v>637</v>
       </c>
+      <c r="D490" t="s">
+        <v>3254</v>
+      </c>
       <c r="E490" t="s">
         <v>1217</v>
       </c>
@@ -27771,6 +30249,9 @@
       <c r="C491" t="s">
         <v>637</v>
       </c>
+      <c r="D491" t="s">
+        <v>748</v>
+      </c>
       <c r="E491" t="s">
         <v>1218</v>
       </c>
@@ -27809,6 +30290,9 @@
       <c r="C492" t="s">
         <v>637</v>
       </c>
+      <c r="D492" t="s">
+        <v>3255</v>
+      </c>
       <c r="E492" t="s">
         <v>1219</v>
       </c>
@@ -27847,6 +30331,9 @@
       <c r="C493" t="s">
         <v>637</v>
       </c>
+      <c r="D493" t="s">
+        <v>748</v>
+      </c>
       <c r="E493" t="s">
         <v>1220</v>
       </c>
@@ -27882,6 +30369,9 @@
       <c r="C494" t="s">
         <v>2127</v>
       </c>
+      <c r="D494" t="s">
+        <v>3256</v>
+      </c>
       <c r="E494" t="s">
         <v>1221</v>
       </c>
@@ -27920,6 +30410,9 @@
       <c r="C495" t="s">
         <v>637</v>
       </c>
+      <c r="D495" t="s">
+        <v>3257</v>
+      </c>
       <c r="E495" t="s">
         <v>1222</v>
       </c>
@@ -27955,6 +30448,9 @@
       <c r="C496" t="s">
         <v>637</v>
       </c>
+      <c r="D496" t="s">
+        <v>3258</v>
+      </c>
       <c r="E496" t="s">
         <v>1223</v>
       </c>
@@ -27993,6 +30489,9 @@
       <c r="C497" t="s">
         <v>657</v>
       </c>
+      <c r="D497">
+        <v>82981197808</v>
+      </c>
       <c r="E497" t="s">
         <v>1224</v>
       </c>
@@ -28028,6 +30527,9 @@
       <c r="C498" t="s">
         <v>2165</v>
       </c>
+      <c r="D498" t="s">
+        <v>3259</v>
+      </c>
       <c r="E498" t="s">
         <v>1225</v>
       </c>
@@ -28066,6 +30568,9 @@
       <c r="C499" t="s">
         <v>2166</v>
       </c>
+      <c r="D499" t="s">
+        <v>3260</v>
+      </c>
       <c r="E499" t="s">
         <v>1226</v>
       </c>
@@ -28104,6 +30609,9 @@
       <c r="C500" t="s">
         <v>637</v>
       </c>
+      <c r="D500">
+        <v>82981566676</v>
+      </c>
       <c r="E500" t="s">
         <v>1227</v>
       </c>
@@ -28142,6 +30650,9 @@
       <c r="C501" t="s">
         <v>637</v>
       </c>
+      <c r="D501" t="s">
+        <v>3261</v>
+      </c>
       <c r="E501" t="s">
         <v>1228</v>
       </c>
@@ -28180,6 +30691,9 @@
       <c r="C502" t="s">
         <v>2167</v>
       </c>
+      <c r="D502" t="s">
+        <v>748</v>
+      </c>
       <c r="E502" t="s">
         <v>1229</v>
       </c>
@@ -28218,6 +30732,9 @@
       <c r="C503" t="s">
         <v>2168</v>
       </c>
+      <c r="D503" t="s">
+        <v>748</v>
+      </c>
       <c r="E503" t="s">
         <v>1230</v>
       </c>
@@ -28256,6 +30773,9 @@
       <c r="C504" t="s">
         <v>637</v>
       </c>
+      <c r="D504" t="s">
+        <v>3262</v>
+      </c>
       <c r="E504" t="s">
         <v>1231</v>
       </c>
@@ -28291,6 +30811,9 @@
       <c r="C505" t="s">
         <v>637</v>
       </c>
+      <c r="D505" t="s">
+        <v>3263</v>
+      </c>
       <c r="E505" t="s">
         <v>1232</v>
       </c>
@@ -28329,6 +30852,9 @@
       <c r="C506" t="s">
         <v>2169</v>
       </c>
+      <c r="D506" t="s">
+        <v>3264</v>
+      </c>
       <c r="E506" t="s">
         <v>1233</v>
       </c>
@@ -28367,6 +30893,9 @@
       <c r="C507" t="s">
         <v>637</v>
       </c>
+      <c r="D507" t="s">
+        <v>3265</v>
+      </c>
       <c r="E507" t="s">
         <v>1234</v>
       </c>
@@ -28402,6 +30931,9 @@
       <c r="C508" t="s">
         <v>2170</v>
       </c>
+      <c r="D508" t="s">
+        <v>3266</v>
+      </c>
       <c r="E508" t="s">
         <v>1235</v>
       </c>
@@ -28440,6 +30972,9 @@
       <c r="C509" t="s">
         <v>637</v>
       </c>
+      <c r="D509" t="s">
+        <v>3267</v>
+      </c>
       <c r="E509" t="s">
         <v>1236</v>
       </c>
@@ -28478,6 +31013,9 @@
       <c r="C510" t="s">
         <v>2171</v>
       </c>
+      <c r="D510" t="s">
+        <v>3268</v>
+      </c>
       <c r="E510" t="s">
         <v>1237</v>
       </c>
@@ -28516,6 +31054,9 @@
       <c r="C511" t="s">
         <v>637</v>
       </c>
+      <c r="D511" t="s">
+        <v>3269</v>
+      </c>
       <c r="E511" t="s">
         <v>1238</v>
       </c>
@@ -28551,6 +31092,9 @@
       <c r="C512" t="s">
         <v>637</v>
       </c>
+      <c r="D512" t="s">
+        <v>3270</v>
+      </c>
       <c r="E512" t="s">
         <v>1239</v>
       </c>
@@ -28589,6 +31133,9 @@
       <c r="C513" t="s">
         <v>637</v>
       </c>
+      <c r="D513" t="s">
+        <v>3271</v>
+      </c>
       <c r="E513" t="s">
         <v>1240</v>
       </c>
@@ -28624,6 +31171,9 @@
       <c r="C514" t="s">
         <v>2172</v>
       </c>
+      <c r="D514" t="s">
+        <v>3272</v>
+      </c>
       <c r="E514" t="s">
         <v>1241</v>
       </c>
@@ -28662,6 +31212,9 @@
       <c r="C515" t="s">
         <v>2173</v>
       </c>
+      <c r="D515" t="s">
+        <v>3273</v>
+      </c>
       <c r="E515" t="s">
         <v>1242</v>
       </c>
@@ -28697,6 +31250,9 @@
       <c r="C516" t="s">
         <v>637</v>
       </c>
+      <c r="D516" t="s">
+        <v>748</v>
+      </c>
       <c r="E516" t="s">
         <v>1243</v>
       </c>
@@ -28732,6 +31288,9 @@
       <c r="C517" t="s">
         <v>641</v>
       </c>
+      <c r="D517" t="s">
+        <v>3274</v>
+      </c>
       <c r="E517" t="s">
         <v>1244</v>
       </c>
@@ -28770,6 +31329,9 @@
       <c r="C518" t="s">
         <v>637</v>
       </c>
+      <c r="D518" t="s">
+        <v>3275</v>
+      </c>
       <c r="E518" t="s">
         <v>1245</v>
       </c>
@@ -28808,6 +31370,9 @@
       <c r="C519" t="s">
         <v>637</v>
       </c>
+      <c r="D519" t="s">
+        <v>3276</v>
+      </c>
       <c r="E519" t="s">
         <v>1246</v>
       </c>
@@ -28846,6 +31411,9 @@
       <c r="C520" t="s">
         <v>637</v>
       </c>
+      <c r="D520" t="s">
+        <v>3277</v>
+      </c>
       <c r="E520" t="s">
         <v>1247</v>
       </c>
@@ -28881,6 +31449,9 @@
       <c r="C521" t="s">
         <v>2174</v>
       </c>
+      <c r="D521" t="s">
+        <v>3278</v>
+      </c>
       <c r="E521" t="s">
         <v>1248</v>
       </c>
@@ -28919,6 +31490,9 @@
       <c r="C522" t="s">
         <v>637</v>
       </c>
+      <c r="D522" t="s">
+        <v>3279</v>
+      </c>
       <c r="E522" t="s">
         <v>1249</v>
       </c>
@@ -28957,6 +31531,9 @@
       <c r="C523" t="s">
         <v>637</v>
       </c>
+      <c r="D523" t="s">
+        <v>748</v>
+      </c>
       <c r="E523" t="s">
         <v>1250</v>
       </c>
@@ -28995,6 +31572,9 @@
       <c r="C524" t="s">
         <v>637</v>
       </c>
+      <c r="D524" t="s">
+        <v>748</v>
+      </c>
       <c r="E524" t="s">
         <v>1251</v>
       </c>
@@ -29033,6 +31613,9 @@
       <c r="C525" t="s">
         <v>657</v>
       </c>
+      <c r="D525">
+        <v>82987492967</v>
+      </c>
       <c r="E525" t="s">
         <v>1252</v>
       </c>
@@ -29068,6 +31651,9 @@
       <c r="C526" t="s">
         <v>2175</v>
       </c>
+      <c r="D526" t="s">
+        <v>748</v>
+      </c>
       <c r="E526" t="s">
         <v>1253</v>
       </c>
@@ -29106,6 +31692,9 @@
       <c r="C527" t="s">
         <v>641</v>
       </c>
+      <c r="D527" t="s">
+        <v>3280</v>
+      </c>
       <c r="E527" t="s">
         <v>1254</v>
       </c>
@@ -29144,6 +31733,9 @@
       <c r="C528" t="s">
         <v>2176</v>
       </c>
+      <c r="D528" t="s">
+        <v>3266</v>
+      </c>
       <c r="E528" t="s">
         <v>1255</v>
       </c>
@@ -29179,6 +31771,9 @@
       <c r="C529" t="s">
         <v>637</v>
       </c>
+      <c r="D529" t="s">
+        <v>3281</v>
+      </c>
       <c r="E529" t="s">
         <v>1256</v>
       </c>
@@ -29214,6 +31809,9 @@
       <c r="C530" t="s">
         <v>637</v>
       </c>
+      <c r="D530">
+        <v>82999646903</v>
+      </c>
       <c r="E530" t="s">
         <v>1257</v>
       </c>
@@ -29252,6 +31850,9 @@
       <c r="C531" t="s">
         <v>2177</v>
       </c>
+      <c r="D531" t="s">
+        <v>3282</v>
+      </c>
       <c r="E531" t="s">
         <v>1258</v>
       </c>
@@ -29290,6 +31891,9 @@
       <c r="C532" t="s">
         <v>2178</v>
       </c>
+      <c r="D532" t="s">
+        <v>3283</v>
+      </c>
       <c r="E532" t="s">
         <v>1259</v>
       </c>
@@ -29328,6 +31932,9 @@
       <c r="C533" t="s">
         <v>2179</v>
       </c>
+      <c r="D533" t="s">
+        <v>3284</v>
+      </c>
       <c r="E533" t="s">
         <v>1260</v>
       </c>
@@ -29363,6 +31970,9 @@
       <c r="C534" t="s">
         <v>2180</v>
       </c>
+      <c r="D534" t="s">
+        <v>3285</v>
+      </c>
       <c r="E534" t="s">
         <v>1261</v>
       </c>
@@ -29401,6 +32011,9 @@
       <c r="C535" t="s">
         <v>641</v>
       </c>
+      <c r="D535" t="s">
+        <v>3286</v>
+      </c>
       <c r="E535" t="s">
         <v>1262</v>
       </c>
@@ -29439,6 +32052,9 @@
       <c r="C536" t="s">
         <v>637</v>
       </c>
+      <c r="D536" t="s">
+        <v>3287</v>
+      </c>
       <c r="E536" t="s">
         <v>1263</v>
       </c>
@@ -29474,6 +32090,9 @@
       <c r="C537" t="s">
         <v>637</v>
       </c>
+      <c r="D537" t="s">
+        <v>3288</v>
+      </c>
       <c r="E537" t="s">
         <v>1264</v>
       </c>
@@ -29512,6 +32131,9 @@
       <c r="C538" t="s">
         <v>637</v>
       </c>
+      <c r="D538" t="s">
+        <v>3289</v>
+      </c>
       <c r="E538" t="s">
         <v>1265</v>
       </c>
@@ -29550,6 +32172,9 @@
       <c r="C539" t="s">
         <v>2181</v>
       </c>
+      <c r="D539" t="s">
+        <v>3290</v>
+      </c>
       <c r="E539" t="s">
         <v>1266</v>
       </c>
@@ -29585,6 +32210,9 @@
       <c r="C540" t="s">
         <v>637</v>
       </c>
+      <c r="D540" t="s">
+        <v>3291</v>
+      </c>
       <c r="E540" t="s">
         <v>1267</v>
       </c>
@@ -29623,6 +32251,9 @@
       <c r="C541" t="s">
         <v>2182</v>
       </c>
+      <c r="D541" t="s">
+        <v>3292</v>
+      </c>
       <c r="E541" t="s">
         <v>1268</v>
       </c>
@@ -29661,6 +32292,9 @@
       <c r="C542" t="s">
         <v>2183</v>
       </c>
+      <c r="D542">
+        <v>82982013889</v>
+      </c>
       <c r="E542" t="s">
         <v>1269</v>
       </c>
@@ -29699,6 +32333,9 @@
       <c r="C543" t="s">
         <v>637</v>
       </c>
+      <c r="D543" t="s">
+        <v>3293</v>
+      </c>
       <c r="E543" t="s">
         <v>1270</v>
       </c>
@@ -29737,6 +32374,9 @@
       <c r="C544" t="s">
         <v>641</v>
       </c>
+      <c r="D544" t="s">
+        <v>3294</v>
+      </c>
       <c r="E544" t="s">
         <v>1271</v>
       </c>
@@ -29775,6 +32415,9 @@
       <c r="C545" t="s">
         <v>637</v>
       </c>
+      <c r="D545" t="s">
+        <v>3295</v>
+      </c>
       <c r="E545" t="s">
         <v>1272</v>
       </c>
@@ -29813,6 +32456,9 @@
       <c r="C546" t="s">
         <v>637</v>
       </c>
+      <c r="D546" t="s">
+        <v>3296</v>
+      </c>
       <c r="E546" t="s">
         <v>1273</v>
       </c>
@@ -29851,6 +32497,9 @@
       <c r="C547" t="s">
         <v>2184</v>
       </c>
+      <c r="D547" t="s">
+        <v>3297</v>
+      </c>
       <c r="E547" t="s">
         <v>1274</v>
       </c>
@@ -29889,6 +32538,9 @@
       <c r="C548" t="s">
         <v>637</v>
       </c>
+      <c r="D548" t="s">
+        <v>3298</v>
+      </c>
       <c r="E548" t="s">
         <v>1275</v>
       </c>
@@ -29927,6 +32579,9 @@
       <c r="C549" t="s">
         <v>637</v>
       </c>
+      <c r="D549" t="s">
+        <v>3299</v>
+      </c>
       <c r="E549" t="s">
         <v>1276</v>
       </c>
@@ -29962,6 +32617,9 @@
       <c r="C550" t="s">
         <v>641</v>
       </c>
+      <c r="D550" t="s">
+        <v>3300</v>
+      </c>
       <c r="E550" t="s">
         <v>1277</v>
       </c>
@@ -30000,6 +32658,9 @@
       <c r="C551" t="s">
         <v>637</v>
       </c>
+      <c r="D551" t="s">
+        <v>3301</v>
+      </c>
       <c r="E551" t="s">
         <v>1278</v>
       </c>
@@ -30038,6 +32699,9 @@
       <c r="C552" t="s">
         <v>637</v>
       </c>
+      <c r="D552" t="s">
+        <v>3302</v>
+      </c>
       <c r="E552" t="s">
         <v>1279</v>
       </c>
@@ -30076,6 +32740,9 @@
       <c r="C553" t="s">
         <v>637</v>
       </c>
+      <c r="D553" t="s">
+        <v>3303</v>
+      </c>
       <c r="E553" t="s">
         <v>1280</v>
       </c>
@@ -30152,6 +32819,9 @@
       <c r="C555" t="s">
         <v>2186</v>
       </c>
+      <c r="D555" t="s">
+        <v>3304</v>
+      </c>
       <c r="E555" t="s">
         <v>1282</v>
       </c>
@@ -30187,6 +32857,9 @@
       <c r="C556" t="s">
         <v>637</v>
       </c>
+      <c r="D556" t="s">
+        <v>3305</v>
+      </c>
       <c r="E556" t="s">
         <v>1283</v>
       </c>
@@ -30225,6 +32898,9 @@
       <c r="C557" t="s">
         <v>2187</v>
       </c>
+      <c r="D557" t="s">
+        <v>3306</v>
+      </c>
       <c r="E557" t="s">
         <v>1284</v>
       </c>
@@ -30263,6 +32939,9 @@
       <c r="C558" t="s">
         <v>2188</v>
       </c>
+      <c r="D558" t="s">
+        <v>748</v>
+      </c>
       <c r="E558" t="s">
         <v>1285</v>
       </c>
@@ -30301,6 +32980,9 @@
       <c r="C559" t="s">
         <v>637</v>
       </c>
+      <c r="D559">
+        <v>82882026805</v>
+      </c>
       <c r="E559" t="s">
         <v>1286</v>
       </c>
@@ -30336,6 +33018,9 @@
       <c r="C560" t="s">
         <v>637</v>
       </c>
+      <c r="D560" t="s">
+        <v>3307</v>
+      </c>
       <c r="E560" t="s">
         <v>1287</v>
       </c>
@@ -30368,6 +33053,9 @@
       <c r="C561" t="s">
         <v>2189</v>
       </c>
+      <c r="D561" t="s">
+        <v>3308</v>
+      </c>
       <c r="E561" t="s">
         <v>1288</v>
       </c>
@@ -30406,6 +33094,9 @@
       <c r="C562" t="s">
         <v>2127</v>
       </c>
+      <c r="D562" t="s">
+        <v>3309</v>
+      </c>
       <c r="E562" t="s">
         <v>1289</v>
       </c>
@@ -30444,6 +33135,9 @@
       <c r="C563" t="s">
         <v>637</v>
       </c>
+      <c r="D563" t="s">
+        <v>3310</v>
+      </c>
       <c r="E563" t="s">
         <v>1290</v>
       </c>
@@ -30479,6 +33173,9 @@
       <c r="C564" t="s">
         <v>2190</v>
       </c>
+      <c r="D564" t="s">
+        <v>3311</v>
+      </c>
       <c r="E564" t="s">
         <v>1291</v>
       </c>
@@ -30514,6 +33211,9 @@
       <c r="C565" t="s">
         <v>637</v>
       </c>
+      <c r="D565" t="s">
+        <v>3312</v>
+      </c>
       <c r="E565" t="s">
         <v>1292</v>
       </c>
@@ -30552,6 +33252,9 @@
       <c r="C566" t="s">
         <v>644</v>
       </c>
+      <c r="D566" t="s">
+        <v>3313</v>
+      </c>
       <c r="E566" t="s">
         <v>1293</v>
       </c>
@@ -30590,6 +33293,9 @@
       <c r="C567" t="s">
         <v>2191</v>
       </c>
+      <c r="D567" t="s">
+        <v>3314</v>
+      </c>
       <c r="E567" t="s">
         <v>1294</v>
       </c>
@@ -30628,6 +33334,9 @@
       <c r="C568" t="s">
         <v>637</v>
       </c>
+      <c r="D568" t="s">
+        <v>3315</v>
+      </c>
       <c r="E568" t="s">
         <v>1295</v>
       </c>
@@ -30663,6 +33372,9 @@
       <c r="C569" t="s">
         <v>637</v>
       </c>
+      <c r="D569" t="s">
+        <v>3316</v>
+      </c>
       <c r="E569" t="s">
         <v>1296</v>
       </c>
@@ -30701,6 +33413,9 @@
       <c r="C570" t="s">
         <v>637</v>
       </c>
+      <c r="D570" t="s">
+        <v>748</v>
+      </c>
       <c r="E570" t="s">
         <v>1297</v>
       </c>
@@ -30736,6 +33451,9 @@
       <c r="C571" t="s">
         <v>637</v>
       </c>
+      <c r="D571">
+        <v>8299999999</v>
+      </c>
       <c r="E571" t="s">
         <v>1298</v>
       </c>
@@ -30771,6 +33489,9 @@
       <c r="C572" t="s">
         <v>637</v>
       </c>
+      <c r="D572" t="s">
+        <v>748</v>
+      </c>
       <c r="E572" t="s">
         <v>1298</v>
       </c>
@@ -30809,6 +33530,9 @@
       <c r="C573" t="s">
         <v>637</v>
       </c>
+      <c r="D573" t="s">
+        <v>748</v>
+      </c>
       <c r="E573" t="s">
         <v>1299</v>
       </c>
@@ -30847,6 +33571,9 @@
       <c r="C574" t="s">
         <v>637</v>
       </c>
+      <c r="D574" t="s">
+        <v>3317</v>
+      </c>
       <c r="E574" t="s">
         <v>1300</v>
       </c>
@@ -30882,6 +33609,9 @@
       <c r="C575" t="s">
         <v>637</v>
       </c>
+      <c r="D575" t="s">
+        <v>3318</v>
+      </c>
       <c r="E575" t="s">
         <v>1301</v>
       </c>
@@ -30917,6 +33647,9 @@
       <c r="C576" t="s">
         <v>2192</v>
       </c>
+      <c r="D576" t="s">
+        <v>3319</v>
+      </c>
       <c r="E576" t="s">
         <v>1301</v>
       </c>
@@ -30952,6 +33685,9 @@
       <c r="C577" t="s">
         <v>637</v>
       </c>
+      <c r="D577" t="s">
+        <v>3320</v>
+      </c>
       <c r="E577" t="s">
         <v>1302</v>
       </c>
@@ -30990,6 +33726,9 @@
       <c r="C578" t="s">
         <v>637</v>
       </c>
+      <c r="D578" t="s">
+        <v>3321</v>
+      </c>
       <c r="E578" t="s">
         <v>1303</v>
       </c>
@@ -31028,6 +33767,9 @@
       <c r="C579" t="s">
         <v>637</v>
       </c>
+      <c r="D579" t="s">
+        <v>3322</v>
+      </c>
       <c r="E579" t="s">
         <v>1304</v>
       </c>
@@ -31066,6 +33808,9 @@
       <c r="C580" t="s">
         <v>637</v>
       </c>
+      <c r="D580">
+        <v>82999856412</v>
+      </c>
       <c r="E580" t="s">
         <v>1305</v>
       </c>
@@ -31104,6 +33849,9 @@
       <c r="C581" t="s">
         <v>641</v>
       </c>
+      <c r="D581" t="s">
+        <v>3323</v>
+      </c>
       <c r="E581" t="s">
         <v>1306</v>
       </c>
@@ -31142,6 +33890,9 @@
       <c r="C582" t="s">
         <v>637</v>
       </c>
+      <c r="D582" t="s">
+        <v>3324</v>
+      </c>
       <c r="E582" t="s">
         <v>1307</v>
       </c>
@@ -31180,6 +33931,9 @@
       <c r="C583" t="s">
         <v>637</v>
       </c>
+      <c r="D583" t="s">
+        <v>3325</v>
+      </c>
       <c r="E583" t="s">
         <v>1308</v>
       </c>
@@ -31218,6 +33972,9 @@
       <c r="C584" t="s">
         <v>2193</v>
       </c>
+      <c r="D584" t="s">
+        <v>3326</v>
+      </c>
       <c r="E584" t="s">
         <v>1309</v>
       </c>
@@ -31256,6 +34013,9 @@
       <c r="C585" t="s">
         <v>637</v>
       </c>
+      <c r="D585" t="s">
+        <v>3326</v>
+      </c>
       <c r="E585" t="s">
         <v>1309</v>
       </c>
@@ -31291,6 +34051,9 @@
       <c r="C586" t="s">
         <v>2194</v>
       </c>
+      <c r="D586" t="s">
+        <v>3327</v>
+      </c>
       <c r="E586" t="s">
         <v>1310</v>
       </c>
@@ -31329,6 +34092,9 @@
       <c r="C587" t="s">
         <v>2195</v>
       </c>
+      <c r="D587" t="s">
+        <v>3328</v>
+      </c>
       <c r="E587" t="s">
         <v>1311</v>
       </c>
@@ -31364,6 +34130,9 @@
       <c r="C588" t="s">
         <v>637</v>
       </c>
+      <c r="D588" t="s">
+        <v>3329</v>
+      </c>
       <c r="E588" t="s">
         <v>1312</v>
       </c>
@@ -31399,6 +34168,9 @@
       <c r="C589" t="s">
         <v>2196</v>
       </c>
+      <c r="D589" t="s">
+        <v>3330</v>
+      </c>
       <c r="E589" t="s">
         <v>1313</v>
       </c>
@@ -31434,6 +34206,9 @@
       <c r="C590" t="s">
         <v>637</v>
       </c>
+      <c r="D590" t="s">
+        <v>3331</v>
+      </c>
       <c r="E590" t="s">
         <v>1314</v>
       </c>
@@ -31472,6 +34247,9 @@
       <c r="C591" t="s">
         <v>637</v>
       </c>
+      <c r="D591" t="s">
+        <v>3332</v>
+      </c>
       <c r="E591" t="s">
         <v>1315</v>
       </c>
@@ -31510,6 +34288,9 @@
       <c r="C592" t="s">
         <v>2197</v>
       </c>
+      <c r="D592" t="s">
+        <v>3333</v>
+      </c>
       <c r="E592" t="s">
         <v>1316</v>
       </c>
@@ -31548,6 +34329,9 @@
       <c r="C593" t="s">
         <v>637</v>
       </c>
+      <c r="D593">
+        <v>82981861488</v>
+      </c>
       <c r="E593" t="s">
         <v>1317</v>
       </c>
@@ -31586,6 +34370,9 @@
       <c r="C594" t="s">
         <v>637</v>
       </c>
+      <c r="D594" t="s">
+        <v>3334</v>
+      </c>
       <c r="E594" t="s">
         <v>1318</v>
       </c>
@@ -31621,6 +34408,9 @@
       <c r="C595" t="s">
         <v>2198</v>
       </c>
+      <c r="D595" t="s">
+        <v>3335</v>
+      </c>
       <c r="E595" t="s">
         <v>1319</v>
       </c>
@@ -31659,6 +34449,9 @@
       <c r="C596" t="s">
         <v>2199</v>
       </c>
+      <c r="D596" t="s">
+        <v>3336</v>
+      </c>
       <c r="E596" t="s">
         <v>1320</v>
       </c>
@@ -31694,6 +34487,9 @@
       <c r="C597" t="s">
         <v>637</v>
       </c>
+      <c r="D597" t="s">
+        <v>3337</v>
+      </c>
       <c r="E597" t="s">
         <v>1321</v>
       </c>
@@ -31732,6 +34528,9 @@
       <c r="C598" t="s">
         <v>637</v>
       </c>
+      <c r="D598" t="s">
+        <v>3338</v>
+      </c>
       <c r="E598" t="s">
         <v>1322</v>
       </c>
@@ -31770,6 +34569,9 @@
       <c r="C599" t="s">
         <v>637</v>
       </c>
+      <c r="D599" t="s">
+        <v>3338</v>
+      </c>
       <c r="E599" t="s">
         <v>1322</v>
       </c>
@@ -31808,6 +34610,9 @@
       <c r="C600" t="s">
         <v>2200</v>
       </c>
+      <c r="D600">
+        <v>82981288210</v>
+      </c>
       <c r="E600" t="s">
         <v>1323</v>
       </c>
@@ -31846,6 +34651,9 @@
       <c r="C601" t="s">
         <v>637</v>
       </c>
+      <c r="D601">
+        <v>82981127782</v>
+      </c>
       <c r="E601" t="s">
         <v>1324</v>
       </c>
@@ -31884,6 +34692,9 @@
       <c r="C602" t="s">
         <v>2201</v>
       </c>
+      <c r="D602">
+        <v>82981200482</v>
+      </c>
       <c r="E602" t="s">
         <v>1325</v>
       </c>
@@ -31922,6 +34733,9 @@
       <c r="C603" t="s">
         <v>637</v>
       </c>
+      <c r="D603" t="s">
+        <v>3339</v>
+      </c>
       <c r="E603" t="s">
         <v>1326</v>
       </c>
@@ -31957,6 +34771,9 @@
       <c r="C604" t="s">
         <v>637</v>
       </c>
+      <c r="D604">
+        <v>82981562602</v>
+      </c>
       <c r="E604" t="s">
         <v>1327</v>
       </c>
@@ -31995,6 +34812,9 @@
       <c r="C605" t="s">
         <v>2120</v>
       </c>
+      <c r="D605" t="s">
+        <v>3340</v>
+      </c>
       <c r="E605" t="s">
         <v>1328</v>
       </c>
@@ -32033,6 +34853,9 @@
       <c r="C606" t="s">
         <v>637</v>
       </c>
+      <c r="D606">
+        <v>82999434520</v>
+      </c>
       <c r="E606" t="s">
         <v>1329</v>
       </c>
@@ -32071,6 +34894,9 @@
       <c r="C607" t="s">
         <v>637</v>
       </c>
+      <c r="D607" t="s">
+        <v>3341</v>
+      </c>
       <c r="E607" t="s">
         <v>1330</v>
       </c>
@@ -32106,6 +34932,9 @@
       <c r="C608" t="s">
         <v>637</v>
       </c>
+      <c r="D608" t="s">
+        <v>3342</v>
+      </c>
       <c r="E608" t="s">
         <v>1331</v>
       </c>
@@ -32144,6 +34973,9 @@
       <c r="C609" t="s">
         <v>641</v>
       </c>
+      <c r="D609" t="s">
+        <v>3343</v>
+      </c>
       <c r="E609" t="s">
         <v>1332</v>
       </c>
@@ -32182,6 +35014,9 @@
       <c r="C610" t="s">
         <v>637</v>
       </c>
+      <c r="D610" t="s">
+        <v>3344</v>
+      </c>
       <c r="E610" t="s">
         <v>1333</v>
       </c>
@@ -32220,6 +35055,9 @@
       <c r="C611" t="s">
         <v>637</v>
       </c>
+      <c r="D611" t="s">
+        <v>3338</v>
+      </c>
       <c r="E611" t="s">
         <v>1322</v>
       </c>
@@ -32258,6 +35096,9 @@
       <c r="C612" t="s">
         <v>2202</v>
       </c>
+      <c r="D612" t="s">
+        <v>748</v>
+      </c>
       <c r="E612" t="s">
         <v>1334</v>
       </c>
@@ -32296,6 +35137,9 @@
       <c r="C613" t="s">
         <v>641</v>
       </c>
+      <c r="D613" t="s">
+        <v>3345</v>
+      </c>
       <c r="E613" t="s">
         <v>1335</v>
       </c>
@@ -32334,6 +35178,9 @@
       <c r="C614" t="s">
         <v>637</v>
       </c>
+      <c r="D614">
+        <v>82981402340</v>
+      </c>
       <c r="E614" t="s">
         <v>1336</v>
       </c>
@@ -32372,6 +35219,9 @@
       <c r="C615" t="s">
         <v>637</v>
       </c>
+      <c r="D615" t="s">
+        <v>3346</v>
+      </c>
       <c r="E615" t="s">
         <v>1337</v>
       </c>
@@ -32407,6 +35257,9 @@
       <c r="C616" t="s">
         <v>2203</v>
       </c>
+      <c r="D616" t="s">
+        <v>3347</v>
+      </c>
       <c r="E616" t="s">
         <v>1338</v>
       </c>
@@ -32445,6 +35298,9 @@
       <c r="C617" t="s">
         <v>2204</v>
       </c>
+      <c r="D617" t="s">
+        <v>3348</v>
+      </c>
       <c r="E617" t="s">
         <v>1339</v>
       </c>
@@ -32483,6 +35339,9 @@
       <c r="C618" t="s">
         <v>637</v>
       </c>
+      <c r="D618" t="s">
+        <v>3349</v>
+      </c>
       <c r="E618" t="s">
         <v>1340</v>
       </c>
@@ -32521,6 +35380,9 @@
       <c r="C619" t="s">
         <v>637</v>
       </c>
+      <c r="D619" t="s">
+        <v>3350</v>
+      </c>
       <c r="E619" t="s">
         <v>1341</v>
       </c>
@@ -32556,6 +35418,9 @@
       <c r="C620" t="s">
         <v>637</v>
       </c>
+      <c r="D620" t="s">
+        <v>3351</v>
+      </c>
       <c r="E620" t="s">
         <v>1342</v>
       </c>
@@ -32594,6 +35459,9 @@
       <c r="C621" t="s">
         <v>2205</v>
       </c>
+      <c r="D621" t="s">
+        <v>3352</v>
+      </c>
       <c r="E621" t="s">
         <v>1343</v>
       </c>
@@ -32632,6 +35500,9 @@
       <c r="C622" t="s">
         <v>637</v>
       </c>
+      <c r="D622" t="s">
+        <v>3353</v>
+      </c>
       <c r="E622" t="s">
         <v>1344</v>
       </c>
@@ -32667,6 +35538,9 @@
       <c r="C623" t="s">
         <v>637</v>
       </c>
+      <c r="D623" t="s">
+        <v>3354</v>
+      </c>
       <c r="E623" t="s">
         <v>1345</v>
       </c>
@@ -32704,6 +35578,9 @@
       </c>
       <c r="C624" t="s">
         <v>637</v>
+      </c>
+      <c r="D624" t="s">
+        <v>3355</v>
       </c>
       <c r="E624" t="s">
         <v>1346</v>

--- a/data/baseTesteIXC.xlsx
+++ b/data/baseTesteIXC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weslley Carvalho\import_data_ixc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94957B7E-52C4-409B-9703-ECB41D9C99AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7AC01D-E627-4C67-A7E8-55AD430E8A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8FC378E9-0372-46C3-819C-916EEC60C49E}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{8FC378E9-0372-46C3-819C-916EEC60C49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -221,9 +221,6 @@
     <t>teste@gmail.com</t>
   </si>
   <si>
-    <t>194.327.600-57</t>
-  </si>
-  <si>
     <t>270.100.890-51</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>teste9@radios.com</t>
+  </si>
+  <si>
+    <t>835.212.320-34</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +730,7 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -757,7 +757,7 @@
         <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q2" t="s">
         <v>54</v>
@@ -777,7 +777,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -804,7 +804,7 @@
         <v>53</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
         <v>55</v>
@@ -824,7 +824,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -851,7 +851,7 @@
         <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="s">
         <v>56</v>
@@ -871,7 +871,7 @@
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -898,7 +898,7 @@
         <v>53</v>
       </c>
       <c r="P5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q5" t="s">
         <v>55</v>
@@ -918,7 +918,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -942,7 +942,7 @@
         <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q6" t="s">
         <v>57</v>
@@ -962,7 +962,7 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -989,7 +989,7 @@
         <v>53</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q7" t="s">
         <v>55</v>
@@ -1009,7 +1009,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
         <v>31</v>
@@ -1033,7 +1033,7 @@
         <v>53</v>
       </c>
       <c r="P8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
         <v>55</v>
@@ -1053,7 +1053,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -1080,7 +1080,7 @@
         <v>53</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q9" t="s">
         <v>55</v>
@@ -1100,7 +1100,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -1124,7 +1124,7 @@
         <v>53</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q10" t="s">
         <v>55</v>

--- a/data/baseTesteIXC.xlsx
+++ b/data/baseTesteIXC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weslley Carvalho\import_data_ixc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7AC01D-E627-4C67-A7E8-55AD430E8A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95F1C35-9557-4FB2-AF2C-A886DF3121B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{8FC378E9-0372-46C3-819C-916EEC60C49E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -221,30 +221,6 @@
     <t>teste@gmail.com</t>
   </si>
   <si>
-    <t>270.100.890-51</t>
-  </si>
-  <si>
-    <t>719.882.490-07</t>
-  </si>
-  <si>
-    <t>365.449.730-68</t>
-  </si>
-  <si>
-    <t>629.504.540-54</t>
-  </si>
-  <si>
-    <t>540.987.360-20</t>
-  </si>
-  <si>
-    <t>85.604.945/0001-75</t>
-  </si>
-  <si>
-    <t>28.043.105/0001-47</t>
-  </si>
-  <si>
-    <t>92.678.107/0001-01</t>
-  </si>
-  <si>
     <t>teste1@radios.com</t>
   </si>
   <si>
@@ -272,7 +248,28 @@
     <t>teste9@radios.com</t>
   </si>
   <si>
-    <t>835.212.320-34</t>
+    <t>685.796.740-77</t>
+  </si>
+  <si>
+    <t>281.742.620-75</t>
+  </si>
+  <si>
+    <t>673.248.950-00</t>
+  </si>
+  <si>
+    <t>108.151.210-59</t>
+  </si>
+  <si>
+    <t>976.069.770-03</t>
+  </si>
+  <si>
+    <t>660.107.170-60</t>
+  </si>
+  <si>
+    <t>52.459.301/0001-81</t>
+  </si>
+  <si>
+    <t>54.404.537/0001-46</t>
   </si>
 </sst>
 </file>
@@ -647,7 +644,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +727,7 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -757,7 +754,7 @@
         <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
         <v>54</v>
@@ -777,7 +774,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -804,7 +801,7 @@
         <v>53</v>
       </c>
       <c r="P3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
         <v>55</v>
@@ -824,7 +821,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -851,7 +848,7 @@
         <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
         <v>56</v>
@@ -871,7 +868,7 @@
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -898,7 +895,7 @@
         <v>53</v>
       </c>
       <c r="P5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q5" t="s">
         <v>55</v>
@@ -918,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -942,7 +939,7 @@
         <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q6" t="s">
         <v>57</v>
@@ -962,7 +959,7 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -989,7 +986,7 @@
         <v>53</v>
       </c>
       <c r="P7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q7" t="s">
         <v>55</v>
@@ -1009,7 +1006,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
         <v>31</v>
@@ -1033,7 +1030,7 @@
         <v>53</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q8" t="s">
         <v>55</v>
@@ -1053,7 +1050,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -1080,7 +1077,7 @@
         <v>53</v>
       </c>
       <c r="P9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Q9" t="s">
         <v>55</v>
@@ -1100,7 +1097,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -1124,7 +1121,7 @@
         <v>53</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q10" t="s">
         <v>55</v>

--- a/data/baseTesteIXC.xlsx
+++ b/data/baseTesteIXC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weslley Carvalho\import_data_ixc\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\import_data_ixc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95F1C35-9557-4FB2-AF2C-A886DF3121B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD7164-F13D-4E54-8529-4C8B4466BFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{8FC378E9-0372-46C3-819C-916EEC60C49E}"/>
+    <workbookView xWindow="-28920" yWindow="-4125" windowWidth="29040" windowHeight="15720" xr2:uid="{8FC378E9-0372-46C3-819C-916EEC60C49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -643,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAACF0CC-07E7-49E5-BA71-65AB737EBD7D}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,6 +742,9 @@
       <c r="M2" t="s">
         <v>53</v>
       </c>
+      <c r="O2">
+        <v>6824</v>
+      </c>
       <c r="P2" t="s">
         <v>61</v>
       </c>
@@ -800,6 +792,9 @@
       <c r="M3" t="s">
         <v>53</v>
       </c>
+      <c r="O3">
+        <v>6824</v>
+      </c>
       <c r="P3" t="s">
         <v>62</v>
       </c>
@@ -847,6 +842,9 @@
       <c r="M4" t="s">
         <v>53</v>
       </c>
+      <c r="O4">
+        <v>6824</v>
+      </c>
       <c r="P4" t="s">
         <v>63</v>
       </c>
@@ -894,6 +892,9 @@
       <c r="M5" t="s">
         <v>53</v>
       </c>
+      <c r="O5">
+        <v>6824</v>
+      </c>
       <c r="P5" t="s">
         <v>64</v>
       </c>
@@ -938,6 +939,9 @@
       <c r="M6" t="s">
         <v>53</v>
       </c>
+      <c r="O6">
+        <v>6873</v>
+      </c>
       <c r="P6" t="s">
         <v>65</v>
       </c>
@@ -985,6 +989,9 @@
       <c r="M7" t="s">
         <v>53</v>
       </c>
+      <c r="O7">
+        <v>6873</v>
+      </c>
       <c r="P7" t="s">
         <v>66</v>
       </c>
@@ -1029,6 +1036,9 @@
       <c r="M8" t="s">
         <v>53</v>
       </c>
+      <c r="O8">
+        <v>6873</v>
+      </c>
       <c r="P8" t="s">
         <v>67</v>
       </c>
@@ -1076,6 +1086,9 @@
       <c r="M9" t="s">
         <v>53</v>
       </c>
+      <c r="O9">
+        <v>6873</v>
+      </c>
       <c r="P9" t="s">
         <v>68</v>
       </c>
@@ -1119,6 +1132,9 @@
       </c>
       <c r="M10" t="s">
         <v>53</v>
+      </c>
+      <c r="O10">
+        <v>6824</v>
       </c>
       <c r="P10" t="s">
         <v>69</v>

--- a/data/baseTesteIXC.xlsx
+++ b/data/baseTesteIXC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesll\import_data_ixc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3D8C7F-72C2-42B4-9309-6349668EC5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830E1BD-1799-4869-A315-7211049AF42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8FC378E9-0372-46C3-819C-916EEC60C49E}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,6 +595,9 @@
       <c r="N2">
         <v>6824</v>
       </c>
+      <c r="O2">
+        <v>25</v>
+      </c>
       <c r="P2" t="s">
         <v>26</v>
       </c>

--- a/data/baseTesteIXC.xlsx
+++ b/data/baseTesteIXC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesll\import_data_ixc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830E1BD-1799-4869-A315-7211049AF42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7132E4D-8573-4314-8056-8744BC63CB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8FC378E9-0372-46C3-819C-916EEC60C49E}"/>
   </bookViews>
@@ -482,18 +482,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAACF0CC-07E7-49E5-BA71-65AB737EBD7D}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.6640625" bestFit="1" customWidth="1"/>
